--- a/Healthy ATC Data/Adults without Health Insurance.xlsx
+++ b/Healthy ATC Data/Adults without Health Insurance.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="28">
   <si>
     <t>Indicator Name</t>
   </si>
@@ -90,10 +90,7 @@
     <t xml:space="preserve">This indicator shows the percentage of adults aged 18-64 that do not have any kind of health insurance coverage. </t>
   </si>
   <si>
-    <t>Census Place (City)</t>
-  </si>
-  <si>
-    <t>Austin</t>
+    <t>Census Tract</t>
   </si>
   <si>
     <t>percent</t>
@@ -912,7 +909,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:U190"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -993,32 +990,7176 @@
       <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" t="s">
-        <v>24</v>
+      <c r="D2">
+        <v>48453000101</v>
       </c>
       <c r="E2">
+        <v>10.1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2">
+        <v>8</v>
+      </c>
+      <c r="H2">
+        <v>12.7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2">
+        <v>2014</v>
+      </c>
+      <c r="K2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3">
+        <v>48453000102</v>
+      </c>
+      <c r="E3">
+        <v>6.8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3">
+        <v>5.4</v>
+      </c>
+      <c r="H3">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="I3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3">
+        <v>2014</v>
+      </c>
+      <c r="K3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4">
+        <v>48453000203</v>
+      </c>
+      <c r="E4">
+        <v>16.8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4">
+        <v>13.8</v>
+      </c>
+      <c r="H4">
+        <v>21.5</v>
+      </c>
+      <c r="I4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4">
+        <v>2014</v>
+      </c>
+      <c r="K4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5">
+        <v>48453000204</v>
+      </c>
+      <c r="E5">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5">
+        <v>11.3</v>
+      </c>
+      <c r="H5">
+        <v>15.1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5">
+        <v>2014</v>
+      </c>
+      <c r="K5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6">
+        <v>48453000205</v>
+      </c>
+      <c r="E6">
+        <v>14.9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6">
+        <v>12.7</v>
+      </c>
+      <c r="H6">
+        <v>17.8</v>
+      </c>
+      <c r="I6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6">
+        <v>2014</v>
+      </c>
+      <c r="K6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7">
+        <v>48453000206</v>
+      </c>
+      <c r="E7">
+        <v>11.3</v>
+      </c>
+      <c r="F7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7">
+        <v>9.1</v>
+      </c>
+      <c r="H7">
+        <v>14.2</v>
+      </c>
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7">
+        <v>2014</v>
+      </c>
+      <c r="K7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8">
+        <v>48453000302</v>
+      </c>
+      <c r="E8">
+        <v>15.4</v>
+      </c>
+      <c r="F8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8">
+        <v>12.8</v>
+      </c>
+      <c r="H8">
+        <v>18.5</v>
+      </c>
+      <c r="I8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8">
+        <v>2014</v>
+      </c>
+      <c r="K8" t="s">
+        <v>26</v>
+      </c>
+      <c r="L8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9">
+        <v>48453000304</v>
+      </c>
+      <c r="E9">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="F9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9">
+        <v>15.3</v>
+      </c>
+      <c r="H9">
+        <v>21.3</v>
+      </c>
+      <c r="I9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9">
+        <v>2014</v>
+      </c>
+      <c r="K9" t="s">
+        <v>26</v>
+      </c>
+      <c r="L9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10">
+        <v>48453000305</v>
+      </c>
+      <c r="E10">
+        <v>14.9</v>
+      </c>
+      <c r="F10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10">
+        <v>12.1</v>
+      </c>
+      <c r="H10">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="I10" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10">
+        <v>2014</v>
+      </c>
+      <c r="K10" t="s">
+        <v>26</v>
+      </c>
+      <c r="L10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11">
+        <v>48453000306</v>
+      </c>
+      <c r="E11">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="F11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11">
+        <v>13.9</v>
+      </c>
+      <c r="H11">
+        <v>20.6</v>
+      </c>
+      <c r="I11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11">
+        <v>2014</v>
+      </c>
+      <c r="K11" t="s">
+        <v>26</v>
+      </c>
+      <c r="L11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12">
+        <v>48453000307</v>
+      </c>
+      <c r="E12">
+        <v>15.7</v>
+      </c>
+      <c r="F12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12">
+        <v>12.8</v>
+      </c>
+      <c r="H12">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="I12" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12">
+        <v>2014</v>
+      </c>
+      <c r="K12" t="s">
+        <v>26</v>
+      </c>
+      <c r="L12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13">
+        <v>48453000401</v>
+      </c>
+      <c r="E13">
+        <v>15.6</v>
+      </c>
+      <c r="F13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13">
+        <v>13.1</v>
+      </c>
+      <c r="H13">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="I13" t="s">
+        <v>25</v>
+      </c>
+      <c r="J13">
+        <v>2014</v>
+      </c>
+      <c r="K13" t="s">
+        <v>26</v>
+      </c>
+      <c r="L13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14">
+        <v>48453000402</v>
+      </c>
+      <c r="E14">
+        <v>18</v>
+      </c>
+      <c r="F14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14">
+        <v>14.5</v>
+      </c>
+      <c r="H14">
+        <v>22</v>
+      </c>
+      <c r="I14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14">
+        <v>2014</v>
+      </c>
+      <c r="K14" t="s">
+        <v>26</v>
+      </c>
+      <c r="L14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15">
+        <v>48453000500</v>
+      </c>
+      <c r="E15">
+        <v>18.8</v>
+      </c>
+      <c r="F15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15">
+        <v>15.2</v>
+      </c>
+      <c r="H15">
+        <v>23.3</v>
+      </c>
+      <c r="I15" t="s">
+        <v>25</v>
+      </c>
+      <c r="J15">
+        <v>2014</v>
+      </c>
+      <c r="K15" t="s">
+        <v>26</v>
+      </c>
+      <c r="L15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16">
+        <v>48453000601</v>
+      </c>
+      <c r="E16">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="F16" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16">
+        <v>33.4</v>
+      </c>
+      <c r="H16">
+        <v>41.5</v>
+      </c>
+      <c r="I16" t="s">
+        <v>25</v>
+      </c>
+      <c r="J16">
+        <v>2014</v>
+      </c>
+      <c r="K16" t="s">
+        <v>26</v>
+      </c>
+      <c r="L16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17">
+        <v>48453000603</v>
+      </c>
+      <c r="E17">
+        <v>35.6</v>
+      </c>
+      <c r="F17" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17">
+        <v>30.5</v>
+      </c>
+      <c r="H17">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="I17" t="s">
+        <v>25</v>
+      </c>
+      <c r="J17">
+        <v>2014</v>
+      </c>
+      <c r="K17" t="s">
+        <v>26</v>
+      </c>
+      <c r="L17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18">
+        <v>48453000604</v>
+      </c>
+      <c r="E18">
+        <v>35.9</v>
+      </c>
+      <c r="F18" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18">
+        <v>30.7</v>
+      </c>
+      <c r="H18">
+        <v>41.4</v>
+      </c>
+      <c r="I18" t="s">
+        <v>25</v>
+      </c>
+      <c r="J18">
+        <v>2014</v>
+      </c>
+      <c r="K18" t="s">
+        <v>26</v>
+      </c>
+      <c r="L18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19">
+        <v>48453000700</v>
+      </c>
+      <c r="E19">
+        <v>13.8</v>
+      </c>
+      <c r="F19" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19">
+        <v>11.3</v>
+      </c>
+      <c r="H19">
+        <v>17.2</v>
+      </c>
+      <c r="I19" t="s">
+        <v>25</v>
+      </c>
+      <c r="J19">
+        <v>2014</v>
+      </c>
+      <c r="K19" t="s">
+        <v>26</v>
+      </c>
+      <c r="L19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20">
+        <v>48453000801</v>
+      </c>
+      <c r="E20">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="F20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20">
+        <v>33.9</v>
+      </c>
+      <c r="H20">
+        <v>44.9</v>
+      </c>
+      <c r="I20" t="s">
+        <v>25</v>
+      </c>
+      <c r="J20">
+        <v>2014</v>
+      </c>
+      <c r="K20" t="s">
+        <v>26</v>
+      </c>
+      <c r="L20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21">
+        <v>48453000802</v>
+      </c>
+      <c r="E21">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="F21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21">
+        <v>31.6</v>
+      </c>
+      <c r="H21">
+        <v>39.9</v>
+      </c>
+      <c r="I21" t="s">
+        <v>25</v>
+      </c>
+      <c r="J21">
+        <v>2014</v>
+      </c>
+      <c r="K21" t="s">
+        <v>26</v>
+      </c>
+      <c r="L21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22">
+        <v>48453000803</v>
+      </c>
+      <c r="E22">
+        <v>21.5</v>
+      </c>
+      <c r="F22" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22">
+        <v>17.7</v>
+      </c>
+      <c r="H22">
+        <v>25.7</v>
+      </c>
+      <c r="I22" t="s">
+        <v>25</v>
+      </c>
+      <c r="J22">
+        <v>2014</v>
+      </c>
+      <c r="K22" t="s">
+        <v>26</v>
+      </c>
+      <c r="L22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23">
+        <v>48453000804</v>
+      </c>
+      <c r="E23">
+        <v>31</v>
+      </c>
+      <c r="F23" t="s">
+        <v>24</v>
+      </c>
+      <c r="G23">
+        <v>26.7</v>
+      </c>
+      <c r="H23">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="I23" t="s">
+        <v>25</v>
+      </c>
+      <c r="J23">
+        <v>2014</v>
+      </c>
+      <c r="K23" t="s">
+        <v>26</v>
+      </c>
+      <c r="L23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24">
+        <v>48453000901</v>
+      </c>
+      <c r="E24">
+        <v>24.4</v>
+      </c>
+      <c r="F24" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24">
+        <v>20.2</v>
+      </c>
+      <c r="H24">
+        <v>28.7</v>
+      </c>
+      <c r="I24" t="s">
+        <v>25</v>
+      </c>
+      <c r="J24">
+        <v>2014</v>
+      </c>
+      <c r="K24" t="s">
+        <v>26</v>
+      </c>
+      <c r="L24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25">
+        <v>48453000902</v>
+      </c>
+      <c r="E25">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="F25" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25">
+        <v>30.8</v>
+      </c>
+      <c r="H25">
+        <v>40.9</v>
+      </c>
+      <c r="I25" t="s">
+        <v>25</v>
+      </c>
+      <c r="J25">
+        <v>2014</v>
+      </c>
+      <c r="K25" t="s">
+        <v>26</v>
+      </c>
+      <c r="L25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26">
+        <v>48453001000</v>
+      </c>
+      <c r="E26">
+        <v>30.5</v>
+      </c>
+      <c r="F26" t="s">
+        <v>24</v>
+      </c>
+      <c r="G26">
+        <v>25.5</v>
+      </c>
+      <c r="H26">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="I26" t="s">
+        <v>25</v>
+      </c>
+      <c r="J26">
+        <v>2014</v>
+      </c>
+      <c r="K26" t="s">
+        <v>26</v>
+      </c>
+      <c r="L26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27">
+        <v>48453001100</v>
+      </c>
+      <c r="E27">
+        <v>12.7</v>
+      </c>
+      <c r="F27" t="s">
+        <v>24</v>
+      </c>
+      <c r="G27">
+        <v>10.3</v>
+      </c>
+      <c r="H27">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="I27" t="s">
+        <v>25</v>
+      </c>
+      <c r="J27">
+        <v>2014</v>
+      </c>
+      <c r="K27" t="s">
+        <v>26</v>
+      </c>
+      <c r="L27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28">
+        <v>48453001200</v>
+      </c>
+      <c r="E28">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="F28" t="s">
+        <v>24</v>
+      </c>
+      <c r="G28">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="H28">
+        <v>11</v>
+      </c>
+      <c r="I28" t="s">
+        <v>25</v>
+      </c>
+      <c r="J28">
+        <v>2014</v>
+      </c>
+      <c r="K28" t="s">
+        <v>26</v>
+      </c>
+      <c r="L28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29">
+        <v>48453001303</v>
+      </c>
+      <c r="E29">
+        <v>10</v>
+      </c>
+      <c r="F29" t="s">
+        <v>24</v>
+      </c>
+      <c r="G29">
+        <v>8.1</v>
+      </c>
+      <c r="H29">
+        <v>12.9</v>
+      </c>
+      <c r="I29" t="s">
+        <v>25</v>
+      </c>
+      <c r="J29">
+        <v>2014</v>
+      </c>
+      <c r="K29" t="s">
+        <v>26</v>
+      </c>
+      <c r="L29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30">
+        <v>48453001304</v>
+      </c>
+      <c r="E30">
+        <v>11.7</v>
+      </c>
+      <c r="F30" t="s">
+        <v>24</v>
+      </c>
+      <c r="G30">
+        <v>9.4</v>
+      </c>
+      <c r="H30">
+        <v>14.9</v>
+      </c>
+      <c r="I30" t="s">
+        <v>25</v>
+      </c>
+      <c r="J30">
+        <v>2014</v>
+      </c>
+      <c r="K30" t="s">
+        <v>26</v>
+      </c>
+      <c r="L30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31">
+        <v>48453001305</v>
+      </c>
+      <c r="E31">
+        <v>17.5</v>
+      </c>
+      <c r="F31" t="s">
+        <v>24</v>
+      </c>
+      <c r="G31">
+        <v>14</v>
+      </c>
+      <c r="H31">
+        <v>21.5</v>
+      </c>
+      <c r="I31" t="s">
+        <v>25</v>
+      </c>
+      <c r="J31">
+        <v>2014</v>
+      </c>
+      <c r="K31" t="s">
+        <v>26</v>
+      </c>
+      <c r="L31" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32">
+        <v>48453001307</v>
+      </c>
+      <c r="E32">
+        <v>20.7</v>
+      </c>
+      <c r="F32" t="s">
+        <v>24</v>
+      </c>
+      <c r="G32">
+        <v>17.2</v>
+      </c>
+      <c r="H32">
+        <v>24.7</v>
+      </c>
+      <c r="I32" t="s">
+        <v>25</v>
+      </c>
+      <c r="J32">
+        <v>2014</v>
+      </c>
+      <c r="K32" t="s">
+        <v>26</v>
+      </c>
+      <c r="L32" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" t="s">
+        <v>23</v>
+      </c>
+      <c r="D33">
+        <v>48453001308</v>
+      </c>
+      <c r="E33">
+        <v>24.1</v>
+      </c>
+      <c r="F33" t="s">
+        <v>24</v>
+      </c>
+      <c r="G33">
+        <v>20.7</v>
+      </c>
+      <c r="H33">
+        <v>27.8</v>
+      </c>
+      <c r="I33" t="s">
+        <v>25</v>
+      </c>
+      <c r="J33">
+        <v>2014</v>
+      </c>
+      <c r="K33" t="s">
+        <v>26</v>
+      </c>
+      <c r="L33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34">
+        <v>48453001401</v>
+      </c>
+      <c r="E34">
+        <v>11</v>
+      </c>
+      <c r="F34" t="s">
+        <v>24</v>
+      </c>
+      <c r="G34">
+        <v>9</v>
+      </c>
+      <c r="H34">
+        <v>14.1</v>
+      </c>
+      <c r="I34" t="s">
+        <v>25</v>
+      </c>
+      <c r="J34">
+        <v>2014</v>
+      </c>
+      <c r="K34" t="s">
+        <v>26</v>
+      </c>
+      <c r="L34" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>21</v>
+      </c>
+      <c r="B35" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" t="s">
+        <v>23</v>
+      </c>
+      <c r="D35">
+        <v>48453001402</v>
+      </c>
+      <c r="E35">
+        <v>13.1</v>
+      </c>
+      <c r="F35" t="s">
+        <v>24</v>
+      </c>
+      <c r="G35">
+        <v>11.1</v>
+      </c>
+      <c r="H35">
+        <v>15.4</v>
+      </c>
+      <c r="I35" t="s">
+        <v>25</v>
+      </c>
+      <c r="J35">
+        <v>2014</v>
+      </c>
+      <c r="K35" t="s">
+        <v>26</v>
+      </c>
+      <c r="L35" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>21</v>
+      </c>
+      <c r="B36" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36" t="s">
+        <v>23</v>
+      </c>
+      <c r="D36">
+        <v>48453001403</v>
+      </c>
+      <c r="E36">
+        <v>22.4</v>
+      </c>
+      <c r="F36" t="s">
+        <v>24</v>
+      </c>
+      <c r="G36">
+        <v>18.7</v>
+      </c>
+      <c r="H36">
+        <v>26.3</v>
+      </c>
+      <c r="I36" t="s">
+        <v>25</v>
+      </c>
+      <c r="J36">
+        <v>2014</v>
+      </c>
+      <c r="K36" t="s">
+        <v>26</v>
+      </c>
+      <c r="L36" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>21</v>
+      </c>
+      <c r="B37" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" t="s">
+        <v>23</v>
+      </c>
+      <c r="D37">
+        <v>48453001501</v>
+      </c>
+      <c r="E37">
+        <v>9.5</v>
+      </c>
+      <c r="F37" t="s">
+        <v>24</v>
+      </c>
+      <c r="G37">
+        <v>7.9</v>
+      </c>
+      <c r="H37">
+        <v>11.4</v>
+      </c>
+      <c r="I37" t="s">
+        <v>25</v>
+      </c>
+      <c r="J37">
+        <v>2014</v>
+      </c>
+      <c r="K37" t="s">
+        <v>26</v>
+      </c>
+      <c r="L37" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>21</v>
+      </c>
+      <c r="B38" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38" t="s">
+        <v>23</v>
+      </c>
+      <c r="D38">
+        <v>48453001503</v>
+      </c>
+      <c r="E38">
+        <v>20.2</v>
+      </c>
+      <c r="F38" t="s">
+        <v>24</v>
+      </c>
+      <c r="G38">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="H38">
+        <v>22.9</v>
+      </c>
+      <c r="I38" t="s">
+        <v>25</v>
+      </c>
+      <c r="J38">
+        <v>2014</v>
+      </c>
+      <c r="K38" t="s">
+        <v>26</v>
+      </c>
+      <c r="L38" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>21</v>
+      </c>
+      <c r="B39" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" t="s">
+        <v>23</v>
+      </c>
+      <c r="D39">
+        <v>48453001504</v>
+      </c>
+      <c r="E39">
+        <v>12</v>
+      </c>
+      <c r="F39" t="s">
+        <v>24</v>
+      </c>
+      <c r="G39">
+        <v>9.9</v>
+      </c>
+      <c r="H39">
+        <v>14.4</v>
+      </c>
+      <c r="I39" t="s">
+        <v>25</v>
+      </c>
+      <c r="J39">
+        <v>2014</v>
+      </c>
+      <c r="K39" t="s">
+        <v>26</v>
+      </c>
+      <c r="L39" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>21</v>
+      </c>
+      <c r="B40" t="s">
+        <v>22</v>
+      </c>
+      <c r="C40" t="s">
+        <v>23</v>
+      </c>
+      <c r="D40">
+        <v>48453001505</v>
+      </c>
+      <c r="E40">
+        <v>14.9</v>
+      </c>
+      <c r="F40" t="s">
+        <v>24</v>
+      </c>
+      <c r="G40">
+        <v>12</v>
+      </c>
+      <c r="H40">
+        <v>18.3</v>
+      </c>
+      <c r="I40" t="s">
+        <v>25</v>
+      </c>
+      <c r="J40">
+        <v>2014</v>
+      </c>
+      <c r="K40" t="s">
+        <v>26</v>
+      </c>
+      <c r="L40" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>21</v>
+      </c>
+      <c r="B41" t="s">
+        <v>22</v>
+      </c>
+      <c r="C41" t="s">
+        <v>23</v>
+      </c>
+      <c r="D41">
+        <v>48453001602</v>
+      </c>
+      <c r="E41">
+        <v>12.3</v>
+      </c>
+      <c r="F41" t="s">
+        <v>24</v>
+      </c>
+      <c r="G41">
+        <v>10.4</v>
+      </c>
+      <c r="H41">
+        <v>15.1</v>
+      </c>
+      <c r="I41" t="s">
+        <v>25</v>
+      </c>
+      <c r="J41">
+        <v>2014</v>
+      </c>
+      <c r="K41" t="s">
+        <v>26</v>
+      </c>
+      <c r="L41" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>21</v>
+      </c>
+      <c r="B42" t="s">
+        <v>22</v>
+      </c>
+      <c r="C42" t="s">
+        <v>23</v>
+      </c>
+      <c r="D42">
+        <v>48453001603</v>
+      </c>
+      <c r="E42">
+        <v>6</v>
+      </c>
+      <c r="F42" t="s">
+        <v>24</v>
+      </c>
+      <c r="G42">
+        <v>5.2</v>
+      </c>
+      <c r="H42">
+        <v>7.3</v>
+      </c>
+      <c r="I42" t="s">
+        <v>25</v>
+      </c>
+      <c r="J42">
+        <v>2014</v>
+      </c>
+      <c r="K42" t="s">
+        <v>26</v>
+      </c>
+      <c r="L42" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>21</v>
+      </c>
+      <c r="B43" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43" t="s">
+        <v>23</v>
+      </c>
+      <c r="D43">
+        <v>48453001604</v>
+      </c>
+      <c r="E43">
+        <v>6.5</v>
+      </c>
+      <c r="F43" t="s">
+        <v>24</v>
+      </c>
+      <c r="G43">
+        <v>5.3</v>
+      </c>
+      <c r="H43">
+        <v>8.4</v>
+      </c>
+      <c r="I43" t="s">
+        <v>25</v>
+      </c>
+      <c r="J43">
+        <v>2014</v>
+      </c>
+      <c r="K43" t="s">
+        <v>26</v>
+      </c>
+      <c r="L43" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>21</v>
+      </c>
+      <c r="B44" t="s">
+        <v>22</v>
+      </c>
+      <c r="C44" t="s">
+        <v>23</v>
+      </c>
+      <c r="D44">
+        <v>48453001605</v>
+      </c>
+      <c r="E44">
+        <v>8.5</v>
+      </c>
+      <c r="F44" t="s">
+        <v>24</v>
+      </c>
+      <c r="G44">
+        <v>7.6</v>
+      </c>
+      <c r="H44">
+        <v>9.9</v>
+      </c>
+      <c r="I44" t="s">
+        <v>25</v>
+      </c>
+      <c r="J44">
+        <v>2014</v>
+      </c>
+      <c r="K44" t="s">
+        <v>26</v>
+      </c>
+      <c r="L44" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>21</v>
+      </c>
+      <c r="B45" t="s">
+        <v>22</v>
+      </c>
+      <c r="C45" t="s">
+        <v>23</v>
+      </c>
+      <c r="D45">
+        <v>48453001606</v>
+      </c>
+      <c r="E45">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="F45" t="s">
+        <v>24</v>
+      </c>
+      <c r="G45">
+        <v>33</v>
+      </c>
+      <c r="H45">
+        <v>38.5</v>
+      </c>
+      <c r="I45" t="s">
+        <v>25</v>
+      </c>
+      <c r="J45">
+        <v>2014</v>
+      </c>
+      <c r="K45" t="s">
+        <v>26</v>
+      </c>
+      <c r="L45" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>21</v>
+      </c>
+      <c r="B46" t="s">
+        <v>22</v>
+      </c>
+      <c r="C46" t="s">
+        <v>23</v>
+      </c>
+      <c r="D46">
+        <v>48453001705</v>
+      </c>
+      <c r="E46">
+        <v>7.6</v>
+      </c>
+      <c r="F46" t="s">
+        <v>24</v>
+      </c>
+      <c r="G46">
+        <v>6.7</v>
+      </c>
+      <c r="H46">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I46" t="s">
+        <v>25</v>
+      </c>
+      <c r="J46">
+        <v>2014</v>
+      </c>
+      <c r="K46" t="s">
+        <v>26</v>
+      </c>
+      <c r="L46" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>21</v>
+      </c>
+      <c r="B47" t="s">
+        <v>22</v>
+      </c>
+      <c r="C47" t="s">
+        <v>23</v>
+      </c>
+      <c r="D47">
+        <v>48453001706</v>
+      </c>
+      <c r="E47">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F47" t="s">
+        <v>24</v>
+      </c>
+      <c r="G47">
+        <v>7.4</v>
+      </c>
+      <c r="H47">
+        <v>10.5</v>
+      </c>
+      <c r="I47" t="s">
+        <v>25</v>
+      </c>
+      <c r="J47">
+        <v>2014</v>
+      </c>
+      <c r="K47" t="s">
+        <v>26</v>
+      </c>
+      <c r="L47" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>21</v>
+      </c>
+      <c r="B48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C48" t="s">
+        <v>23</v>
+      </c>
+      <c r="D48">
+        <v>48453001707</v>
+      </c>
+      <c r="E48">
+        <v>11.2</v>
+      </c>
+      <c r="F48" t="s">
+        <v>24</v>
+      </c>
+      <c r="G48">
+        <v>9.4</v>
+      </c>
+      <c r="H48">
+        <v>13.3</v>
+      </c>
+      <c r="I48" t="s">
+        <v>25</v>
+      </c>
+      <c r="J48">
+        <v>2014</v>
+      </c>
+      <c r="K48" t="s">
+        <v>26</v>
+      </c>
+      <c r="L48" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>21</v>
+      </c>
+      <c r="B49" t="s">
+        <v>22</v>
+      </c>
+      <c r="C49" t="s">
+        <v>23</v>
+      </c>
+      <c r="D49">
+        <v>48453001712</v>
+      </c>
+      <c r="E49">
+        <v>21.5</v>
+      </c>
+      <c r="F49" t="s">
+        <v>24</v>
+      </c>
+      <c r="G49">
+        <v>18.2</v>
+      </c>
+      <c r="H49">
+        <v>25</v>
+      </c>
+      <c r="I49" t="s">
+        <v>25</v>
+      </c>
+      <c r="J49">
+        <v>2014</v>
+      </c>
+      <c r="K49" t="s">
+        <v>26</v>
+      </c>
+      <c r="L49" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>21</v>
+      </c>
+      <c r="B50" t="s">
+        <v>22</v>
+      </c>
+      <c r="C50" t="s">
+        <v>23</v>
+      </c>
+      <c r="D50">
+        <v>48453001713</v>
+      </c>
+      <c r="E50">
+        <v>18</v>
+      </c>
+      <c r="F50" t="s">
+        <v>24</v>
+      </c>
+      <c r="G50">
+        <v>15.5</v>
+      </c>
+      <c r="H50">
+        <v>20.9</v>
+      </c>
+      <c r="I50" t="s">
+        <v>25</v>
+      </c>
+      <c r="J50">
+        <v>2014</v>
+      </c>
+      <c r="K50" t="s">
+        <v>26</v>
+      </c>
+      <c r="L50" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>21</v>
+      </c>
+      <c r="B51" t="s">
+        <v>22</v>
+      </c>
+      <c r="C51" t="s">
+        <v>23</v>
+      </c>
+      <c r="D51">
+        <v>48453001714</v>
+      </c>
+      <c r="E51">
+        <v>10.4</v>
+      </c>
+      <c r="F51" t="s">
+        <v>24</v>
+      </c>
+      <c r="G51">
+        <v>9</v>
+      </c>
+      <c r="H51">
+        <v>12.2</v>
+      </c>
+      <c r="I51" t="s">
+        <v>25</v>
+      </c>
+      <c r="J51">
+        <v>2014</v>
+      </c>
+      <c r="K51" t="s">
+        <v>26</v>
+      </c>
+      <c r="L51" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>21</v>
+      </c>
+      <c r="B52" t="s">
+        <v>22</v>
+      </c>
+      <c r="C52" t="s">
+        <v>23</v>
+      </c>
+      <c r="D52">
+        <v>48453001716</v>
+      </c>
+      <c r="E52">
+        <v>8.5</v>
+      </c>
+      <c r="F52" t="s">
+        <v>24</v>
+      </c>
+      <c r="G52">
+        <v>7</v>
+      </c>
+      <c r="H52">
+        <v>10.1</v>
+      </c>
+      <c r="I52" t="s">
+        <v>25</v>
+      </c>
+      <c r="J52">
+        <v>2014</v>
+      </c>
+      <c r="K52" t="s">
+        <v>26</v>
+      </c>
+      <c r="L52" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>21</v>
+      </c>
+      <c r="B53" t="s">
+        <v>22</v>
+      </c>
+      <c r="C53" t="s">
+        <v>23</v>
+      </c>
+      <c r="D53">
+        <v>48453001718</v>
+      </c>
+      <c r="E53">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="F53" t="s">
+        <v>24</v>
+      </c>
+      <c r="G53">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="H53">
+        <v>11.8</v>
+      </c>
+      <c r="I53" t="s">
+        <v>25</v>
+      </c>
+      <c r="J53">
+        <v>2014</v>
+      </c>
+      <c r="K53" t="s">
+        <v>26</v>
+      </c>
+      <c r="L53" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>21</v>
+      </c>
+      <c r="B54" t="s">
+        <v>22</v>
+      </c>
+      <c r="C54" t="s">
+        <v>23</v>
+      </c>
+      <c r="D54">
+        <v>48453001719</v>
+      </c>
+      <c r="E54">
+        <v>6.7</v>
+      </c>
+      <c r="F54" t="s">
+        <v>24</v>
+      </c>
+      <c r="G54">
+        <v>5.6</v>
+      </c>
+      <c r="H54">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="I54" t="s">
+        <v>25</v>
+      </c>
+      <c r="J54">
+        <v>2014</v>
+      </c>
+      <c r="K54" t="s">
+        <v>26</v>
+      </c>
+      <c r="L54" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>21</v>
+      </c>
+      <c r="B55" t="s">
+        <v>22</v>
+      </c>
+      <c r="C55" t="s">
+        <v>23</v>
+      </c>
+      <c r="D55">
+        <v>48453001722</v>
+      </c>
+      <c r="E55">
+        <v>12.2</v>
+      </c>
+      <c r="F55" t="s">
+        <v>24</v>
+      </c>
+      <c r="G55">
+        <v>10.1</v>
+      </c>
+      <c r="H55">
+        <v>14.8</v>
+      </c>
+      <c r="I55" t="s">
+        <v>25</v>
+      </c>
+      <c r="J55">
+        <v>2014</v>
+      </c>
+      <c r="K55" t="s">
+        <v>26</v>
+      </c>
+      <c r="L55" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>21</v>
+      </c>
+      <c r="B56" t="s">
+        <v>22</v>
+      </c>
+      <c r="C56" t="s">
+        <v>23</v>
+      </c>
+      <c r="D56">
+        <v>48453001728</v>
+      </c>
+      <c r="E56">
+        <v>15.6</v>
+      </c>
+      <c r="F56" t="s">
+        <v>24</v>
+      </c>
+      <c r="G56">
+        <v>13.1</v>
+      </c>
+      <c r="H56">
+        <v>18.5</v>
+      </c>
+      <c r="I56" t="s">
+        <v>25</v>
+      </c>
+      <c r="J56">
+        <v>2014</v>
+      </c>
+      <c r="K56" t="s">
+        <v>26</v>
+      </c>
+      <c r="L56" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>21</v>
+      </c>
+      <c r="B57" t="s">
+        <v>22</v>
+      </c>
+      <c r="C57" t="s">
+        <v>23</v>
+      </c>
+      <c r="D57">
+        <v>48453001729</v>
+      </c>
+      <c r="E57">
+        <v>15</v>
+      </c>
+      <c r="F57" t="s">
+        <v>24</v>
+      </c>
+      <c r="G57">
+        <v>12.9</v>
+      </c>
+      <c r="H57">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="I57" t="s">
+        <v>25</v>
+      </c>
+      <c r="J57">
+        <v>2014</v>
+      </c>
+      <c r="K57" t="s">
+        <v>26</v>
+      </c>
+      <c r="L57" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>21</v>
+      </c>
+      <c r="B58" t="s">
+        <v>22</v>
+      </c>
+      <c r="C58" t="s">
+        <v>23</v>
+      </c>
+      <c r="D58">
+        <v>48453001737</v>
+      </c>
+      <c r="E58">
+        <v>9.1</v>
+      </c>
+      <c r="F58" t="s">
+        <v>24</v>
+      </c>
+      <c r="G58">
+        <v>7.9</v>
+      </c>
+      <c r="H58">
+        <v>10.5</v>
+      </c>
+      <c r="I58" t="s">
+        <v>25</v>
+      </c>
+      <c r="J58">
+        <v>2014</v>
+      </c>
+      <c r="K58" t="s">
+        <v>26</v>
+      </c>
+      <c r="L58" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>21</v>
+      </c>
+      <c r="B59" t="s">
+        <v>22</v>
+      </c>
+      <c r="C59" t="s">
+        <v>23</v>
+      </c>
+      <c r="D59">
+        <v>48453001738</v>
+      </c>
+      <c r="E59">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="F59" t="s">
+        <v>24</v>
+      </c>
+      <c r="G59">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="H59">
+        <v>11.7</v>
+      </c>
+      <c r="I59" t="s">
+        <v>25</v>
+      </c>
+      <c r="J59">
+        <v>2014</v>
+      </c>
+      <c r="K59" t="s">
+        <v>26</v>
+      </c>
+      <c r="L59" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>21</v>
+      </c>
+      <c r="B60" t="s">
+        <v>22</v>
+      </c>
+      <c r="C60" t="s">
+        <v>23</v>
+      </c>
+      <c r="D60">
+        <v>48453001740</v>
+      </c>
+      <c r="E60">
+        <v>11.8</v>
+      </c>
+      <c r="F60" t="s">
+        <v>24</v>
+      </c>
+      <c r="G60">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="H60">
+        <v>14.1</v>
+      </c>
+      <c r="I60" t="s">
+        <v>25</v>
+      </c>
+      <c r="J60">
+        <v>2014</v>
+      </c>
+      <c r="K60" t="s">
+        <v>26</v>
+      </c>
+      <c r="L60" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>21</v>
+      </c>
+      <c r="B61" t="s">
+        <v>22</v>
+      </c>
+      <c r="C61" t="s">
+        <v>23</v>
+      </c>
+      <c r="D61">
+        <v>48453001742</v>
+      </c>
+      <c r="E61">
+        <v>15</v>
+      </c>
+      <c r="F61" t="s">
+        <v>24</v>
+      </c>
+      <c r="G61">
+        <v>11.5</v>
+      </c>
+      <c r="H61">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="I61" t="s">
+        <v>25</v>
+      </c>
+      <c r="J61">
+        <v>2014</v>
+      </c>
+      <c r="K61" t="s">
+        <v>26</v>
+      </c>
+      <c r="L61" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>21</v>
+      </c>
+      <c r="B62" t="s">
+        <v>22</v>
+      </c>
+      <c r="C62" t="s">
+        <v>23</v>
+      </c>
+      <c r="D62">
+        <v>48453001745</v>
+      </c>
+      <c r="E62">
+        <v>13.3</v>
+      </c>
+      <c r="F62" t="s">
+        <v>24</v>
+      </c>
+      <c r="G62">
+        <v>11.3</v>
+      </c>
+      <c r="H62">
+        <v>15.6</v>
+      </c>
+      <c r="I62" t="s">
+        <v>25</v>
+      </c>
+      <c r="J62">
+        <v>2014</v>
+      </c>
+      <c r="K62" t="s">
+        <v>26</v>
+      </c>
+      <c r="L62" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>21</v>
+      </c>
+      <c r="B63" t="s">
+        <v>22</v>
+      </c>
+      <c r="C63" t="s">
+        <v>23</v>
+      </c>
+      <c r="D63">
+        <v>48453001746</v>
+      </c>
+      <c r="E63">
+        <v>16.7</v>
+      </c>
+      <c r="F63" t="s">
+        <v>24</v>
+      </c>
+      <c r="G63">
+        <v>14</v>
+      </c>
+      <c r="H63">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="I63" t="s">
+        <v>25</v>
+      </c>
+      <c r="J63">
+        <v>2014</v>
+      </c>
+      <c r="K63" t="s">
+        <v>26</v>
+      </c>
+      <c r="L63" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>21</v>
+      </c>
+      <c r="B64" t="s">
+        <v>22</v>
+      </c>
+      <c r="C64" t="s">
+        <v>23</v>
+      </c>
+      <c r="D64">
+        <v>48453001747</v>
+      </c>
+      <c r="E64">
+        <v>22.3</v>
+      </c>
+      <c r="F64" t="s">
+        <v>24</v>
+      </c>
+      <c r="G64">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="H64">
+        <v>25.2</v>
+      </c>
+      <c r="I64" t="s">
+        <v>25</v>
+      </c>
+      <c r="J64">
+        <v>2014</v>
+      </c>
+      <c r="K64" t="s">
+        <v>26</v>
+      </c>
+      <c r="L64" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>21</v>
+      </c>
+      <c r="B65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C65" t="s">
+        <v>23</v>
+      </c>
+      <c r="D65">
+        <v>48453001748</v>
+      </c>
+      <c r="E65">
+        <v>16.3</v>
+      </c>
+      <c r="F65" t="s">
+        <v>24</v>
+      </c>
+      <c r="G65">
+        <v>13.7</v>
+      </c>
+      <c r="H65">
+        <v>19</v>
+      </c>
+      <c r="I65" t="s">
+        <v>25</v>
+      </c>
+      <c r="J65">
+        <v>2014</v>
+      </c>
+      <c r="K65" t="s">
+        <v>26</v>
+      </c>
+      <c r="L65" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>21</v>
+      </c>
+      <c r="B66" t="s">
+        <v>22</v>
+      </c>
+      <c r="C66" t="s">
+        <v>23</v>
+      </c>
+      <c r="D66">
+        <v>48453001749</v>
+      </c>
+      <c r="E66">
+        <v>12.9</v>
+      </c>
+      <c r="F66" t="s">
+        <v>24</v>
+      </c>
+      <c r="G66">
+        <v>10.7</v>
+      </c>
+      <c r="H66">
+        <v>15.6</v>
+      </c>
+      <c r="I66" t="s">
+        <v>25</v>
+      </c>
+      <c r="J66">
+        <v>2014</v>
+      </c>
+      <c r="K66" t="s">
+        <v>26</v>
+      </c>
+      <c r="L66" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>21</v>
+      </c>
+      <c r="B67" t="s">
+        <v>22</v>
+      </c>
+      <c r="C67" t="s">
+        <v>23</v>
+      </c>
+      <c r="D67">
+        <v>48453001750</v>
+      </c>
+      <c r="E67">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="F67" t="s">
+        <v>24</v>
+      </c>
+      <c r="G67">
+        <v>14.6</v>
+      </c>
+      <c r="H67">
+        <v>20</v>
+      </c>
+      <c r="I67" t="s">
+        <v>25</v>
+      </c>
+      <c r="J67">
+        <v>2014</v>
+      </c>
+      <c r="K67" t="s">
+        <v>26</v>
+      </c>
+      <c r="L67" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>21</v>
+      </c>
+      <c r="B68" t="s">
+        <v>22</v>
+      </c>
+      <c r="C68" t="s">
+        <v>23</v>
+      </c>
+      <c r="D68">
+        <v>48453001751</v>
+      </c>
+      <c r="E68">
+        <v>6.8</v>
+      </c>
+      <c r="F68" t="s">
+        <v>24</v>
+      </c>
+      <c r="G68">
+        <v>5.9</v>
+      </c>
+      <c r="H68">
+        <v>8.1</v>
+      </c>
+      <c r="I68" t="s">
+        <v>25</v>
+      </c>
+      <c r="J68">
+        <v>2014</v>
+      </c>
+      <c r="K68" t="s">
+        <v>26</v>
+      </c>
+      <c r="L68" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>21</v>
+      </c>
+      <c r="B69" t="s">
+        <v>22</v>
+      </c>
+      <c r="C69" t="s">
+        <v>23</v>
+      </c>
+      <c r="D69">
+        <v>48453001752</v>
+      </c>
+      <c r="E69">
+        <v>21.6</v>
+      </c>
+      <c r="F69" t="s">
+        <v>24</v>
+      </c>
+      <c r="G69">
+        <v>18</v>
+      </c>
+      <c r="H69">
+        <v>26</v>
+      </c>
+      <c r="I69" t="s">
+        <v>25</v>
+      </c>
+      <c r="J69">
+        <v>2014</v>
+      </c>
+      <c r="K69" t="s">
+        <v>26</v>
+      </c>
+      <c r="L69" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>21</v>
+      </c>
+      <c r="B70" t="s">
+        <v>22</v>
+      </c>
+      <c r="C70" t="s">
+        <v>23</v>
+      </c>
+      <c r="D70">
+        <v>48453001753</v>
+      </c>
+      <c r="E70">
+        <v>12.7</v>
+      </c>
+      <c r="F70" t="s">
+        <v>24</v>
+      </c>
+      <c r="G70">
+        <v>10.5</v>
+      </c>
+      <c r="H70">
+        <v>16</v>
+      </c>
+      <c r="I70" t="s">
+        <v>25</v>
+      </c>
+      <c r="J70">
+        <v>2014</v>
+      </c>
+      <c r="K70" t="s">
+        <v>26</v>
+      </c>
+      <c r="L70" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>21</v>
+      </c>
+      <c r="B71" t="s">
+        <v>22</v>
+      </c>
+      <c r="C71" t="s">
+        <v>23</v>
+      </c>
+      <c r="D71">
+        <v>48453001754</v>
+      </c>
+      <c r="E71">
+        <v>14.2</v>
+      </c>
+      <c r="F71" t="s">
+        <v>24</v>
+      </c>
+      <c r="G71">
+        <v>12.1</v>
+      </c>
+      <c r="H71">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="I71" t="s">
+        <v>25</v>
+      </c>
+      <c r="J71">
+        <v>2014</v>
+      </c>
+      <c r="K71" t="s">
+        <v>26</v>
+      </c>
+      <c r="L71" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>21</v>
+      </c>
+      <c r="B72" t="s">
+        <v>22</v>
+      </c>
+      <c r="C72" t="s">
+        <v>23</v>
+      </c>
+      <c r="D72">
+        <v>48453001755</v>
+      </c>
+      <c r="E72">
+        <v>6.9</v>
+      </c>
+      <c r="F72" t="s">
+        <v>24</v>
+      </c>
+      <c r="G72">
+        <v>5.7</v>
+      </c>
+      <c r="H72">
+        <v>8.4</v>
+      </c>
+      <c r="I72" t="s">
+        <v>25</v>
+      </c>
+      <c r="J72">
+        <v>2014</v>
+      </c>
+      <c r="K72" t="s">
+        <v>26</v>
+      </c>
+      <c r="L72" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>21</v>
+      </c>
+      <c r="B73" t="s">
+        <v>22</v>
+      </c>
+      <c r="C73" t="s">
+        <v>23</v>
+      </c>
+      <c r="D73">
+        <v>48453001756</v>
+      </c>
+      <c r="E73">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="F73" t="s">
+        <v>24</v>
+      </c>
+      <c r="G73">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="H73">
+        <v>10.4</v>
+      </c>
+      <c r="I73" t="s">
+        <v>25</v>
+      </c>
+      <c r="J73">
+        <v>2014</v>
+      </c>
+      <c r="K73" t="s">
+        <v>26</v>
+      </c>
+      <c r="L73" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>21</v>
+      </c>
+      <c r="B74" t="s">
+        <v>22</v>
+      </c>
+      <c r="C74" t="s">
+        <v>23</v>
+      </c>
+      <c r="D74">
+        <v>48453001757</v>
+      </c>
+      <c r="E74">
+        <v>9</v>
+      </c>
+      <c r="F74" t="s">
+        <v>24</v>
+      </c>
+      <c r="G74">
+        <v>7.5</v>
+      </c>
+      <c r="H74">
+        <v>10.9</v>
+      </c>
+      <c r="I74" t="s">
+        <v>25</v>
+      </c>
+      <c r="J74">
+        <v>2014</v>
+      </c>
+      <c r="K74" t="s">
+        <v>26</v>
+      </c>
+      <c r="L74" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>21</v>
+      </c>
+      <c r="B75" t="s">
+        <v>22</v>
+      </c>
+      <c r="C75" t="s">
+        <v>23</v>
+      </c>
+      <c r="D75">
+        <v>48453001760</v>
+      </c>
+      <c r="E75">
+        <v>8.1</v>
+      </c>
+      <c r="F75" t="s">
+        <v>24</v>
+      </c>
+      <c r="G75">
+        <v>6.9</v>
+      </c>
+      <c r="H75">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="I75" t="s">
+        <v>25</v>
+      </c>
+      <c r="J75">
+        <v>2014</v>
+      </c>
+      <c r="K75" t="s">
+        <v>26</v>
+      </c>
+      <c r="L75" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>21</v>
+      </c>
+      <c r="B76" t="s">
+        <v>22</v>
+      </c>
+      <c r="C76" t="s">
+        <v>23</v>
+      </c>
+      <c r="D76">
+        <v>48453001761</v>
+      </c>
+      <c r="E76">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="F76" t="s">
+        <v>24</v>
+      </c>
+      <c r="G76">
+        <v>7.3</v>
+      </c>
+      <c r="H76">
+        <v>10.7</v>
+      </c>
+      <c r="I76" t="s">
+        <v>25</v>
+      </c>
+      <c r="J76">
+        <v>2014</v>
+      </c>
+      <c r="K76" t="s">
+        <v>26</v>
+      </c>
+      <c r="L76" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>21</v>
+      </c>
+      <c r="B77" t="s">
+        <v>22</v>
+      </c>
+      <c r="C77" t="s">
+        <v>23</v>
+      </c>
+      <c r="D77">
+        <v>48453001765</v>
+      </c>
+      <c r="E77">
+        <v>9.4</v>
+      </c>
+      <c r="F77" t="s">
+        <v>24</v>
+      </c>
+      <c r="G77">
+        <v>7.9</v>
+      </c>
+      <c r="H77">
+        <v>11.3</v>
+      </c>
+      <c r="I77" t="s">
+        <v>25</v>
+      </c>
+      <c r="J77">
+        <v>2014</v>
+      </c>
+      <c r="K77" t="s">
+        <v>26</v>
+      </c>
+      <c r="L77" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>21</v>
+      </c>
+      <c r="B78" t="s">
+        <v>22</v>
+      </c>
+      <c r="C78" t="s">
+        <v>23</v>
+      </c>
+      <c r="D78">
+        <v>48453001769</v>
+      </c>
+      <c r="E78">
+        <v>11.2</v>
+      </c>
+      <c r="F78" t="s">
+        <v>24</v>
+      </c>
+      <c r="G78">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="H78">
+        <v>13.2</v>
+      </c>
+      <c r="I78" t="s">
+        <v>25</v>
+      </c>
+      <c r="J78">
+        <v>2014</v>
+      </c>
+      <c r="K78" t="s">
+        <v>26</v>
+      </c>
+      <c r="L78" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>21</v>
+      </c>
+      <c r="B79" t="s">
+        <v>22</v>
+      </c>
+      <c r="C79" t="s">
+        <v>23</v>
+      </c>
+      <c r="D79">
+        <v>48453001770</v>
+      </c>
+      <c r="E79">
+        <v>7.7</v>
+      </c>
+      <c r="F79" t="s">
+        <v>24</v>
+      </c>
+      <c r="G79">
+        <v>6.4</v>
+      </c>
+      <c r="H79">
+        <v>9.4</v>
+      </c>
+      <c r="I79" t="s">
+        <v>25</v>
+      </c>
+      <c r="J79">
+        <v>2014</v>
+      </c>
+      <c r="K79" t="s">
+        <v>26</v>
+      </c>
+      <c r="L79" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>21</v>
+      </c>
+      <c r="B80" t="s">
+        <v>22</v>
+      </c>
+      <c r="C80" t="s">
+        <v>23</v>
+      </c>
+      <c r="D80">
+        <v>48453001772</v>
+      </c>
+      <c r="E80">
+        <v>20.6</v>
+      </c>
+      <c r="F80" t="s">
+        <v>24</v>
+      </c>
+      <c r="G80">
+        <v>17.5</v>
+      </c>
+      <c r="H80">
+        <v>24.2</v>
+      </c>
+      <c r="I80" t="s">
+        <v>25</v>
+      </c>
+      <c r="J80">
+        <v>2014</v>
+      </c>
+      <c r="K80" t="s">
+        <v>26</v>
+      </c>
+      <c r="L80" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>21</v>
+      </c>
+      <c r="B81" t="s">
+        <v>22</v>
+      </c>
+      <c r="C81" t="s">
+        <v>23</v>
+      </c>
+      <c r="D81">
+        <v>48453001774</v>
+      </c>
+      <c r="E81">
+        <v>12.7</v>
+      </c>
+      <c r="F81" t="s">
+        <v>24</v>
+      </c>
+      <c r="G81">
+        <v>10.5</v>
+      </c>
+      <c r="H81">
+        <v>15.1</v>
+      </c>
+      <c r="I81" t="s">
+        <v>25</v>
+      </c>
+      <c r="J81">
+        <v>2014</v>
+      </c>
+      <c r="K81" t="s">
+        <v>26</v>
+      </c>
+      <c r="L81" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>21</v>
+      </c>
+      <c r="B82" t="s">
+        <v>22</v>
+      </c>
+      <c r="C82" t="s">
+        <v>23</v>
+      </c>
+      <c r="D82">
+        <v>48453001775</v>
+      </c>
+      <c r="E82">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="F82" t="s">
+        <v>24</v>
+      </c>
+      <c r="G82">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="H82">
+        <v>12.6</v>
+      </c>
+      <c r="I82" t="s">
+        <v>25</v>
+      </c>
+      <c r="J82">
+        <v>2014</v>
+      </c>
+      <c r="K82" t="s">
+        <v>26</v>
+      </c>
+      <c r="L82" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>21</v>
+      </c>
+      <c r="B83" t="s">
+        <v>22</v>
+      </c>
+      <c r="C83" t="s">
+        <v>23</v>
+      </c>
+      <c r="D83">
+        <v>48453001776</v>
+      </c>
+      <c r="E83">
+        <v>14.9</v>
+      </c>
+      <c r="F83" t="s">
+        <v>24</v>
+      </c>
+      <c r="G83">
+        <v>12.8</v>
+      </c>
+      <c r="H83">
+        <v>17</v>
+      </c>
+      <c r="I83" t="s">
+        <v>25</v>
+      </c>
+      <c r="J83">
+        <v>2014</v>
+      </c>
+      <c r="K83" t="s">
+        <v>26</v>
+      </c>
+      <c r="L83" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>21</v>
+      </c>
+      <c r="B84" t="s">
+        <v>22</v>
+      </c>
+      <c r="C84" t="s">
+        <v>23</v>
+      </c>
+      <c r="D84">
+        <v>48453001777</v>
+      </c>
+      <c r="E84">
+        <v>15.2</v>
+      </c>
+      <c r="F84" t="s">
+        <v>24</v>
+      </c>
+      <c r="G84">
+        <v>13.3</v>
+      </c>
+      <c r="H84">
+        <v>17.2</v>
+      </c>
+      <c r="I84" t="s">
+        <v>25</v>
+      </c>
+      <c r="J84">
+        <v>2014</v>
+      </c>
+      <c r="K84" t="s">
+        <v>26</v>
+      </c>
+      <c r="L84" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>21</v>
+      </c>
+      <c r="B85" t="s">
+        <v>22</v>
+      </c>
+      <c r="C85" t="s">
+        <v>23</v>
+      </c>
+      <c r="D85">
+        <v>48453001781</v>
+      </c>
+      <c r="E85">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="F85" t="s">
+        <v>24</v>
+      </c>
+      <c r="G85">
+        <v>7</v>
+      </c>
+      <c r="H85">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="I85" t="s">
+        <v>25</v>
+      </c>
+      <c r="J85">
+        <v>2014</v>
+      </c>
+      <c r="K85" t="s">
+        <v>26</v>
+      </c>
+      <c r="L85" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>21</v>
+      </c>
+      <c r="B86" t="s">
+        <v>22</v>
+      </c>
+      <c r="C86" t="s">
+        <v>23</v>
+      </c>
+      <c r="D86">
+        <v>48453001782</v>
+      </c>
+      <c r="E86">
+        <v>9.4</v>
+      </c>
+      <c r="F86" t="s">
+        <v>24</v>
+      </c>
+      <c r="G86">
+        <v>7.7</v>
+      </c>
+      <c r="H86">
+        <v>11.4</v>
+      </c>
+      <c r="I86" t="s">
+        <v>25</v>
+      </c>
+      <c r="J86">
+        <v>2014</v>
+      </c>
+      <c r="K86" t="s">
+        <v>26</v>
+      </c>
+      <c r="L86" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>21</v>
+      </c>
+      <c r="B87" t="s">
+        <v>22</v>
+      </c>
+      <c r="C87" t="s">
+        <v>23</v>
+      </c>
+      <c r="D87">
+        <v>48453001783</v>
+      </c>
+      <c r="E87">
+        <v>7.6</v>
+      </c>
+      <c r="F87" t="s">
+        <v>24</v>
+      </c>
+      <c r="G87">
+        <v>5.9</v>
+      </c>
+      <c r="H87">
+        <v>9.9</v>
+      </c>
+      <c r="I87" t="s">
+        <v>25</v>
+      </c>
+      <c r="J87">
+        <v>2014</v>
+      </c>
+      <c r="K87" t="s">
+        <v>26</v>
+      </c>
+      <c r="L87" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>21</v>
+      </c>
+      <c r="B88" t="s">
+        <v>22</v>
+      </c>
+      <c r="C88" t="s">
+        <v>23</v>
+      </c>
+      <c r="D88">
+        <v>48453001784</v>
+      </c>
+      <c r="E88">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="F88" t="s">
+        <v>24</v>
+      </c>
+      <c r="G88">
+        <v>7.7</v>
+      </c>
+      <c r="H88">
+        <v>12.8</v>
+      </c>
+      <c r="I88" t="s">
+        <v>25</v>
+      </c>
+      <c r="J88">
+        <v>2014</v>
+      </c>
+      <c r="K88" t="s">
+        <v>26</v>
+      </c>
+      <c r="L88" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>21</v>
+      </c>
+      <c r="B89" t="s">
+        <v>22</v>
+      </c>
+      <c r="C89" t="s">
+        <v>23</v>
+      </c>
+      <c r="D89">
+        <v>48453001785</v>
+      </c>
+      <c r="E89">
+        <v>14.4</v>
+      </c>
+      <c r="F89" t="s">
+        <v>24</v>
+      </c>
+      <c r="G89">
+        <v>12.7</v>
+      </c>
+      <c r="H89">
+        <v>16.2</v>
+      </c>
+      <c r="I89" t="s">
+        <v>25</v>
+      </c>
+      <c r="J89">
+        <v>2014</v>
+      </c>
+      <c r="K89" t="s">
+        <v>26</v>
+      </c>
+      <c r="L89" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>21</v>
+      </c>
+      <c r="B90" t="s">
+        <v>22</v>
+      </c>
+      <c r="C90" t="s">
+        <v>23</v>
+      </c>
+      <c r="D90">
+        <v>48453001786</v>
+      </c>
+      <c r="E90">
+        <v>15.8</v>
+      </c>
+      <c r="F90" t="s">
+        <v>24</v>
+      </c>
+      <c r="G90">
+        <v>13</v>
+      </c>
+      <c r="H90">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="I90" t="s">
+        <v>25</v>
+      </c>
+      <c r="J90">
+        <v>2014</v>
+      </c>
+      <c r="K90" t="s">
+        <v>26</v>
+      </c>
+      <c r="L90" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>21</v>
+      </c>
+      <c r="B91" t="s">
+        <v>22</v>
+      </c>
+      <c r="C91" t="s">
+        <v>23</v>
+      </c>
+      <c r="D91">
+        <v>48453001804</v>
+      </c>
+      <c r="E91">
+        <v>36.6</v>
+      </c>
+      <c r="F91" t="s">
+        <v>24</v>
+      </c>
+      <c r="G91">
+        <v>33</v>
+      </c>
+      <c r="H91">
+        <v>40.1</v>
+      </c>
+      <c r="I91" t="s">
+        <v>25</v>
+      </c>
+      <c r="J91">
+        <v>2014</v>
+      </c>
+      <c r="K91" t="s">
+        <v>26</v>
+      </c>
+      <c r="L91" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>21</v>
+      </c>
+      <c r="B92" t="s">
+        <v>22</v>
+      </c>
+      <c r="C92" t="s">
+        <v>23</v>
+      </c>
+      <c r="D92">
+        <v>48453001805</v>
+      </c>
+      <c r="E92">
+        <v>41.4</v>
+      </c>
+      <c r="F92" t="s">
+        <v>24</v>
+      </c>
+      <c r="G92">
+        <v>37.9</v>
+      </c>
+      <c r="H92">
+        <v>44.6</v>
+      </c>
+      <c r="I92" t="s">
+        <v>25</v>
+      </c>
+      <c r="J92">
+        <v>2014</v>
+      </c>
+      <c r="K92" t="s">
+        <v>26</v>
+      </c>
+      <c r="L92" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>21</v>
+      </c>
+      <c r="B93" t="s">
+        <v>22</v>
+      </c>
+      <c r="C93" t="s">
+        <v>23</v>
+      </c>
+      <c r="D93">
+        <v>48453001806</v>
+      </c>
+      <c r="E93">
+        <v>44.3</v>
+      </c>
+      <c r="F93" t="s">
+        <v>24</v>
+      </c>
+      <c r="G93">
+        <v>39.1</v>
+      </c>
+      <c r="H93">
+        <v>49.1</v>
+      </c>
+      <c r="I93" t="s">
+        <v>25</v>
+      </c>
+      <c r="J93">
+        <v>2014</v>
+      </c>
+      <c r="K93" t="s">
+        <v>26</v>
+      </c>
+      <c r="L93" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>21</v>
+      </c>
+      <c r="B94" t="s">
+        <v>22</v>
+      </c>
+      <c r="C94" t="s">
+        <v>23</v>
+      </c>
+      <c r="D94">
+        <v>48453001811</v>
+      </c>
+      <c r="E94">
+        <v>46</v>
+      </c>
+      <c r="F94" t="s">
+        <v>24</v>
+      </c>
+      <c r="G94">
+        <v>40</v>
+      </c>
+      <c r="H94">
+        <v>51.8</v>
+      </c>
+      <c r="I94" t="s">
+        <v>25</v>
+      </c>
+      <c r="J94">
+        <v>2014</v>
+      </c>
+      <c r="K94" t="s">
+        <v>26</v>
+      </c>
+      <c r="L94" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>21</v>
+      </c>
+      <c r="B95" t="s">
+        <v>22</v>
+      </c>
+      <c r="C95" t="s">
+        <v>23</v>
+      </c>
+      <c r="D95">
+        <v>48453001812</v>
+      </c>
+      <c r="E95">
+        <v>46.5</v>
+      </c>
+      <c r="F95" t="s">
+        <v>24</v>
+      </c>
+      <c r="G95">
+        <v>40.1</v>
+      </c>
+      <c r="H95">
+        <v>51.9</v>
+      </c>
+      <c r="I95" t="s">
+        <v>25</v>
+      </c>
+      <c r="J95">
+        <v>2014</v>
+      </c>
+      <c r="K95" t="s">
+        <v>26</v>
+      </c>
+      <c r="L95" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>21</v>
+      </c>
+      <c r="B96" t="s">
+        <v>22</v>
+      </c>
+      <c r="C96" t="s">
+        <v>23</v>
+      </c>
+      <c r="D96">
+        <v>48453001813</v>
+      </c>
+      <c r="E96">
+        <v>44.6</v>
+      </c>
+      <c r="F96" t="s">
+        <v>24</v>
+      </c>
+      <c r="G96">
+        <v>38.5</v>
+      </c>
+      <c r="H96">
+        <v>50.3</v>
+      </c>
+      <c r="I96" t="s">
+        <v>25</v>
+      </c>
+      <c r="J96">
+        <v>2014</v>
+      </c>
+      <c r="K96" t="s">
+        <v>26</v>
+      </c>
+      <c r="L96" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>21</v>
+      </c>
+      <c r="B97" t="s">
+        <v>22</v>
+      </c>
+      <c r="C97" t="s">
+        <v>23</v>
+      </c>
+      <c r="D97">
+        <v>48453001817</v>
+      </c>
+      <c r="E97">
+        <v>13.8</v>
+      </c>
+      <c r="F97" t="s">
+        <v>24</v>
+      </c>
+      <c r="G97">
+        <v>11.7</v>
+      </c>
+      <c r="H97">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="I97" t="s">
+        <v>25</v>
+      </c>
+      <c r="J97">
+        <v>2014</v>
+      </c>
+      <c r="K97" t="s">
+        <v>26</v>
+      </c>
+      <c r="L97" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>21</v>
+      </c>
+      <c r="B98" t="s">
+        <v>22</v>
+      </c>
+      <c r="C98" t="s">
+        <v>23</v>
+      </c>
+      <c r="D98">
+        <v>48453001818</v>
+      </c>
+      <c r="E98">
+        <v>31.7</v>
+      </c>
+      <c r="F98" t="s">
+        <v>24</v>
+      </c>
+      <c r="G98">
+        <v>27.1</v>
+      </c>
+      <c r="H98">
+        <v>36.4</v>
+      </c>
+      <c r="I98" t="s">
+        <v>25</v>
+      </c>
+      <c r="J98">
+        <v>2014</v>
+      </c>
+      <c r="K98" t="s">
+        <v>26</v>
+      </c>
+      <c r="L98" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>21</v>
+      </c>
+      <c r="B99" t="s">
+        <v>22</v>
+      </c>
+      <c r="C99" t="s">
+        <v>23</v>
+      </c>
+      <c r="D99">
+        <v>48453001819</v>
+      </c>
+      <c r="E99">
+        <v>48.5</v>
+      </c>
+      <c r="F99" t="s">
+        <v>24</v>
+      </c>
+      <c r="G99">
+        <v>45.2</v>
+      </c>
+      <c r="H99">
+        <v>51.6</v>
+      </c>
+      <c r="I99" t="s">
+        <v>25</v>
+      </c>
+      <c r="J99">
+        <v>2014</v>
+      </c>
+      <c r="K99" t="s">
+        <v>26</v>
+      </c>
+      <c r="L99" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>21</v>
+      </c>
+      <c r="B100" t="s">
+        <v>22</v>
+      </c>
+      <c r="C100" t="s">
+        <v>23</v>
+      </c>
+      <c r="D100">
+        <v>48453001820</v>
+      </c>
+      <c r="E100">
+        <v>46.3</v>
+      </c>
+      <c r="F100" t="s">
+        <v>24</v>
+      </c>
+      <c r="G100">
+        <v>40</v>
+      </c>
+      <c r="H100">
+        <v>51.7</v>
+      </c>
+      <c r="I100" t="s">
+        <v>25</v>
+      </c>
+      <c r="J100">
+        <v>2014</v>
+      </c>
+      <c r="K100" t="s">
+        <v>26</v>
+      </c>
+      <c r="L100" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>21</v>
+      </c>
+      <c r="B101" t="s">
+        <v>22</v>
+      </c>
+      <c r="C101" t="s">
+        <v>23</v>
+      </c>
+      <c r="D101">
+        <v>48453001821</v>
+      </c>
+      <c r="E101">
+        <v>30.5</v>
+      </c>
+      <c r="F101" t="s">
+        <v>24</v>
+      </c>
+      <c r="G101">
+        <v>26.4</v>
+      </c>
+      <c r="H101">
+        <v>34.4</v>
+      </c>
+      <c r="I101" t="s">
+        <v>25</v>
+      </c>
+      <c r="J101">
+        <v>2014</v>
+      </c>
+      <c r="K101" t="s">
+        <v>26</v>
+      </c>
+      <c r="L101" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>21</v>
+      </c>
+      <c r="B102" t="s">
+        <v>22</v>
+      </c>
+      <c r="C102" t="s">
+        <v>23</v>
+      </c>
+      <c r="D102">
+        <v>48453001822</v>
+      </c>
+      <c r="E102">
+        <v>44.3</v>
+      </c>
+      <c r="F102" t="s">
+        <v>24</v>
+      </c>
+      <c r="G102">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="H102">
+        <v>48.5</v>
+      </c>
+      <c r="I102" t="s">
+        <v>25</v>
+      </c>
+      <c r="J102">
+        <v>2014</v>
+      </c>
+      <c r="K102" t="s">
+        <v>26</v>
+      </c>
+      <c r="L102" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>21</v>
+      </c>
+      <c r="B103" t="s">
+        <v>22</v>
+      </c>
+      <c r="C103" t="s">
+        <v>23</v>
+      </c>
+      <c r="D103">
+        <v>48453001823</v>
+      </c>
+      <c r="E103">
+        <v>46.6</v>
+      </c>
+      <c r="F103" t="s">
+        <v>24</v>
+      </c>
+      <c r="G103">
+        <v>41.6</v>
+      </c>
+      <c r="H103">
+        <v>51.1</v>
+      </c>
+      <c r="I103" t="s">
+        <v>25</v>
+      </c>
+      <c r="J103">
+        <v>2014</v>
+      </c>
+      <c r="K103" t="s">
+        <v>26</v>
+      </c>
+      <c r="L103" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>21</v>
+      </c>
+      <c r="B104" t="s">
+        <v>22</v>
+      </c>
+      <c r="C104" t="s">
+        <v>23</v>
+      </c>
+      <c r="D104">
+        <v>48453001824</v>
+      </c>
+      <c r="E104">
+        <v>15.9</v>
+      </c>
+      <c r="F104" t="s">
+        <v>24</v>
+      </c>
+      <c r="G104">
+        <v>13.6</v>
+      </c>
+      <c r="H104">
+        <v>18.5</v>
+      </c>
+      <c r="I104" t="s">
+        <v>25</v>
+      </c>
+      <c r="J104">
+        <v>2014</v>
+      </c>
+      <c r="K104" t="s">
+        <v>26</v>
+      </c>
+      <c r="L104" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>21</v>
+      </c>
+      <c r="B105" t="s">
+        <v>22</v>
+      </c>
+      <c r="C105" t="s">
+        <v>23</v>
+      </c>
+      <c r="D105">
+        <v>48453001826</v>
+      </c>
+      <c r="E105">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="F105" t="s">
+        <v>24</v>
+      </c>
+      <c r="G105">
+        <v>16.7</v>
+      </c>
+      <c r="H105">
+        <v>20.8</v>
+      </c>
+      <c r="I105" t="s">
+        <v>25</v>
+      </c>
+      <c r="J105">
+        <v>2014</v>
+      </c>
+      <c r="K105" t="s">
+        <v>26</v>
+      </c>
+      <c r="L105" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>21</v>
+      </c>
+      <c r="B106" t="s">
+        <v>22</v>
+      </c>
+      <c r="C106" t="s">
+        <v>23</v>
+      </c>
+      <c r="D106">
+        <v>48453001828</v>
+      </c>
+      <c r="E106">
+        <v>10.5</v>
+      </c>
+      <c r="F106" t="s">
+        <v>24</v>
+      </c>
+      <c r="G106">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="H106">
+        <v>12.8</v>
+      </c>
+      <c r="I106" t="s">
+        <v>25</v>
+      </c>
+      <c r="J106">
+        <v>2014</v>
+      </c>
+      <c r="K106" t="s">
+        <v>26</v>
+      </c>
+      <c r="L106" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>21</v>
+      </c>
+      <c r="B107" t="s">
+        <v>22</v>
+      </c>
+      <c r="C107" t="s">
+        <v>23</v>
+      </c>
+      <c r="D107">
+        <v>48453001829</v>
+      </c>
+      <c r="E107">
+        <v>14.2</v>
+      </c>
+      <c r="F107" t="s">
+        <v>24</v>
+      </c>
+      <c r="G107">
+        <v>12.6</v>
+      </c>
+      <c r="H107">
+        <v>16</v>
+      </c>
+      <c r="I107" t="s">
+        <v>25</v>
+      </c>
+      <c r="J107">
+        <v>2014</v>
+      </c>
+      <c r="K107" t="s">
+        <v>26</v>
+      </c>
+      <c r="L107" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>21</v>
+      </c>
+      <c r="B108" t="s">
+        <v>22</v>
+      </c>
+      <c r="C108" t="s">
+        <v>23</v>
+      </c>
+      <c r="D108">
+        <v>48453001832</v>
+      </c>
+      <c r="E108">
+        <v>26.5</v>
+      </c>
+      <c r="F108" t="s">
+        <v>24</v>
+      </c>
+      <c r="G108">
+        <v>23.4</v>
+      </c>
+      <c r="H108">
+        <v>29.7</v>
+      </c>
+      <c r="I108" t="s">
+        <v>25</v>
+      </c>
+      <c r="J108">
+        <v>2014</v>
+      </c>
+      <c r="K108" t="s">
+        <v>26</v>
+      </c>
+      <c r="L108" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>21</v>
+      </c>
+      <c r="B109" t="s">
+        <v>22</v>
+      </c>
+      <c r="C109" t="s">
+        <v>23</v>
+      </c>
+      <c r="D109">
+        <v>48453001833</v>
+      </c>
+      <c r="E109">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="F109" t="s">
+        <v>24</v>
+      </c>
+      <c r="G109">
+        <v>32.5</v>
+      </c>
+      <c r="H109">
+        <v>41.8</v>
+      </c>
+      <c r="I109" t="s">
+        <v>25</v>
+      </c>
+      <c r="J109">
+        <v>2014</v>
+      </c>
+      <c r="K109" t="s">
+        <v>26</v>
+      </c>
+      <c r="L109" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>21</v>
+      </c>
+      <c r="B110" t="s">
+        <v>22</v>
+      </c>
+      <c r="C110" t="s">
+        <v>23</v>
+      </c>
+      <c r="D110">
+        <v>48453001834</v>
+      </c>
+      <c r="E110">
+        <v>19.8</v>
+      </c>
+      <c r="F110" t="s">
+        <v>24</v>
+      </c>
+      <c r="G110">
+        <v>17.5</v>
+      </c>
+      <c r="H110">
+        <v>22</v>
+      </c>
+      <c r="I110" t="s">
+        <v>25</v>
+      </c>
+      <c r="J110">
+        <v>2014</v>
+      </c>
+      <c r="K110" t="s">
+        <v>26</v>
+      </c>
+      <c r="L110" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>21</v>
+      </c>
+      <c r="B111" t="s">
+        <v>22</v>
+      </c>
+      <c r="C111" t="s">
+        <v>23</v>
+      </c>
+      <c r="D111">
+        <v>48453001835</v>
+      </c>
+      <c r="E111">
+        <v>34.1</v>
+      </c>
+      <c r="F111" t="s">
+        <v>24</v>
+      </c>
+      <c r="G111">
+        <v>31.2</v>
+      </c>
+      <c r="H111">
+        <v>37</v>
+      </c>
+      <c r="I111" t="s">
+        <v>25</v>
+      </c>
+      <c r="J111">
+        <v>2014</v>
+      </c>
+      <c r="K111" t="s">
+        <v>26</v>
+      </c>
+      <c r="L111" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>21</v>
+      </c>
+      <c r="B112" t="s">
+        <v>22</v>
+      </c>
+      <c r="C112" t="s">
+        <v>23</v>
+      </c>
+      <c r="D112">
+        <v>48453001839</v>
+      </c>
+      <c r="E112">
+        <v>19.5</v>
+      </c>
+      <c r="F112" t="s">
+        <v>24</v>
+      </c>
+      <c r="G112">
+        <v>17</v>
+      </c>
+      <c r="H112">
+        <v>22.1</v>
+      </c>
+      <c r="I112" t="s">
+        <v>25</v>
+      </c>
+      <c r="J112">
+        <v>2014</v>
+      </c>
+      <c r="K112" t="s">
+        <v>26</v>
+      </c>
+      <c r="L112" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>21</v>
+      </c>
+      <c r="B113" t="s">
+        <v>22</v>
+      </c>
+      <c r="C113" t="s">
+        <v>23</v>
+      </c>
+      <c r="D113">
+        <v>48453001840</v>
+      </c>
+      <c r="E113">
+        <v>25.3</v>
+      </c>
+      <c r="F113" t="s">
+        <v>24</v>
+      </c>
+      <c r="G113">
+        <v>22</v>
+      </c>
+      <c r="H113">
+        <v>28.8</v>
+      </c>
+      <c r="I113" t="s">
+        <v>25</v>
+      </c>
+      <c r="J113">
+        <v>2014</v>
+      </c>
+      <c r="K113" t="s">
+        <v>26</v>
+      </c>
+      <c r="L113" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>21</v>
+      </c>
+      <c r="B114" t="s">
+        <v>22</v>
+      </c>
+      <c r="C114" t="s">
+        <v>23</v>
+      </c>
+      <c r="D114">
+        <v>48453001842</v>
+      </c>
+      <c r="E114">
+        <v>31.2</v>
+      </c>
+      <c r="F114" t="s">
+        <v>24</v>
+      </c>
+      <c r="G114">
+        <v>28.6</v>
+      </c>
+      <c r="H114">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="I114" t="s">
+        <v>25</v>
+      </c>
+      <c r="J114">
+        <v>2014</v>
+      </c>
+      <c r="K114" t="s">
+        <v>26</v>
+      </c>
+      <c r="L114" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>21</v>
+      </c>
+      <c r="B115" t="s">
+        <v>22</v>
+      </c>
+      <c r="C115" t="s">
+        <v>23</v>
+      </c>
+      <c r="D115">
+        <v>48453001843</v>
+      </c>
+      <c r="E115">
+        <v>17.7</v>
+      </c>
+      <c r="F115" t="s">
+        <v>24</v>
+      </c>
+      <c r="G115">
+        <v>15.2</v>
+      </c>
+      <c r="H115">
+        <v>20.5</v>
+      </c>
+      <c r="I115" t="s">
+        <v>25</v>
+      </c>
+      <c r="J115">
+        <v>2014</v>
+      </c>
+      <c r="K115" t="s">
+        <v>26</v>
+      </c>
+      <c r="L115" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>21</v>
+      </c>
+      <c r="B116" t="s">
+        <v>22</v>
+      </c>
+      <c r="C116" t="s">
+        <v>23</v>
+      </c>
+      <c r="D116">
+        <v>48453001844</v>
+      </c>
+      <c r="E116">
+        <v>22</v>
+      </c>
+      <c r="F116" t="s">
+        <v>24</v>
+      </c>
+      <c r="G116">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="H116">
+        <v>24.8</v>
+      </c>
+      <c r="I116" t="s">
+        <v>25</v>
+      </c>
+      <c r="J116">
+        <v>2014</v>
+      </c>
+      <c r="K116" t="s">
+        <v>26</v>
+      </c>
+      <c r="L116" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>21</v>
+      </c>
+      <c r="B117" t="s">
+        <v>22</v>
+      </c>
+      <c r="C117" t="s">
+        <v>23</v>
+      </c>
+      <c r="D117">
+        <v>48453001845</v>
+      </c>
+      <c r="E117">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="F117" t="s">
+        <v>24</v>
+      </c>
+      <c r="G117">
+        <v>14.7</v>
+      </c>
+      <c r="H117">
+        <v>20.5</v>
+      </c>
+      <c r="I117" t="s">
+        <v>25</v>
+      </c>
+      <c r="J117">
+        <v>2014</v>
+      </c>
+      <c r="K117" t="s">
+        <v>26</v>
+      </c>
+      <c r="L117" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>21</v>
+      </c>
+      <c r="B118" t="s">
+        <v>22</v>
+      </c>
+      <c r="C118" t="s">
+        <v>23</v>
+      </c>
+      <c r="D118">
+        <v>48453001846</v>
+      </c>
+      <c r="E118">
+        <v>10.4</v>
+      </c>
+      <c r="F118" t="s">
+        <v>24</v>
+      </c>
+      <c r="G118">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="H118">
+        <v>12.1</v>
+      </c>
+      <c r="I118" t="s">
+        <v>25</v>
+      </c>
+      <c r="J118">
+        <v>2014</v>
+      </c>
+      <c r="K118" t="s">
+        <v>26</v>
+      </c>
+      <c r="L118" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>21</v>
+      </c>
+      <c r="B119" t="s">
+        <v>22</v>
+      </c>
+      <c r="C119" t="s">
+        <v>23</v>
+      </c>
+      <c r="D119">
+        <v>48453001847</v>
+      </c>
+      <c r="E119">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="F119" t="s">
+        <v>24</v>
+      </c>
+      <c r="G119">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="H119">
+        <v>21.8</v>
+      </c>
+      <c r="I119" t="s">
+        <v>25</v>
+      </c>
+      <c r="J119">
+        <v>2014</v>
+      </c>
+      <c r="K119" t="s">
+        <v>26</v>
+      </c>
+      <c r="L119" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>21</v>
+      </c>
+      <c r="B120" t="s">
+        <v>22</v>
+      </c>
+      <c r="C120" t="s">
+        <v>23</v>
+      </c>
+      <c r="D120">
+        <v>48453001848</v>
+      </c>
+      <c r="E120">
+        <v>18.8</v>
+      </c>
+      <c r="F120" t="s">
+        <v>24</v>
+      </c>
+      <c r="G120">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="H120">
+        <v>21.4</v>
+      </c>
+      <c r="I120" t="s">
+        <v>25</v>
+      </c>
+      <c r="J120">
+        <v>2014</v>
+      </c>
+      <c r="K120" t="s">
+        <v>26</v>
+      </c>
+      <c r="L120" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>21</v>
+      </c>
+      <c r="B121" t="s">
+        <v>22</v>
+      </c>
+      <c r="C121" t="s">
+        <v>23</v>
+      </c>
+      <c r="D121">
+        <v>48453001849</v>
+      </c>
+      <c r="E121">
+        <v>16.5</v>
+      </c>
+      <c r="F121" t="s">
+        <v>24</v>
+      </c>
+      <c r="G121">
+        <v>14.4</v>
+      </c>
+      <c r="H121">
+        <v>19</v>
+      </c>
+      <c r="I121" t="s">
+        <v>25</v>
+      </c>
+      <c r="J121">
+        <v>2014</v>
+      </c>
+      <c r="K121" t="s">
+        <v>26</v>
+      </c>
+      <c r="L121" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>21</v>
+      </c>
+      <c r="B122" t="s">
+        <v>22</v>
+      </c>
+      <c r="C122" t="s">
+        <v>23</v>
+      </c>
+      <c r="D122">
+        <v>48453001850</v>
+      </c>
+      <c r="E122">
+        <v>20.5</v>
+      </c>
+      <c r="F122" t="s">
+        <v>24</v>
+      </c>
+      <c r="G122">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="H122">
+        <v>23.4</v>
+      </c>
+      <c r="I122" t="s">
+        <v>25</v>
+      </c>
+      <c r="J122">
+        <v>2014</v>
+      </c>
+      <c r="K122" t="s">
+        <v>26</v>
+      </c>
+      <c r="L122" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>21</v>
+      </c>
+      <c r="B123" t="s">
+        <v>22</v>
+      </c>
+      <c r="C123" t="s">
+        <v>23</v>
+      </c>
+      <c r="D123">
+        <v>48453001851</v>
+      </c>
+      <c r="E123">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="F123" t="s">
+        <v>24</v>
+      </c>
+      <c r="G123">
+        <v>16</v>
+      </c>
+      <c r="H123">
+        <v>21.6</v>
+      </c>
+      <c r="I123" t="s">
+        <v>25</v>
+      </c>
+      <c r="J123">
+        <v>2014</v>
+      </c>
+      <c r="K123" t="s">
+        <v>26</v>
+      </c>
+      <c r="L123" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>21</v>
+      </c>
+      <c r="B124" t="s">
+        <v>22</v>
+      </c>
+      <c r="C124" t="s">
+        <v>23</v>
+      </c>
+      <c r="D124">
+        <v>48453001855</v>
+      </c>
+      <c r="E124">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="F124" t="s">
+        <v>24</v>
+      </c>
+      <c r="G124">
+        <v>14.2</v>
+      </c>
+      <c r="H124">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="I124" t="s">
+        <v>25</v>
+      </c>
+      <c r="J124">
+        <v>2014</v>
+      </c>
+      <c r="K124" t="s">
+        <v>26</v>
+      </c>
+      <c r="L124" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>21</v>
+      </c>
+      <c r="B125" t="s">
+        <v>22</v>
+      </c>
+      <c r="C125" t="s">
+        <v>23</v>
+      </c>
+      <c r="D125">
+        <v>48453001856</v>
+      </c>
+      <c r="E125">
+        <v>19.2</v>
+      </c>
+      <c r="F125" t="s">
+        <v>24</v>
+      </c>
+      <c r="G125">
+        <v>17.2</v>
+      </c>
+      <c r="H125">
+        <v>21.2</v>
+      </c>
+      <c r="I125" t="s">
+        <v>25</v>
+      </c>
+      <c r="J125">
+        <v>2014</v>
+      </c>
+      <c r="K125" t="s">
+        <v>26</v>
+      </c>
+      <c r="L125" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>21</v>
+      </c>
+      <c r="B126" t="s">
+        <v>22</v>
+      </c>
+      <c r="C126" t="s">
+        <v>23</v>
+      </c>
+      <c r="D126">
+        <v>48453001901</v>
+      </c>
+      <c r="E126">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="F126" t="s">
+        <v>24</v>
+      </c>
+      <c r="G126">
+        <v>7.7</v>
+      </c>
+      <c r="H126">
+        <v>11.3</v>
+      </c>
+      <c r="I126" t="s">
+        <v>25</v>
+      </c>
+      <c r="J126">
+        <v>2014</v>
+      </c>
+      <c r="K126" t="s">
+        <v>26</v>
+      </c>
+      <c r="L126" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>21</v>
+      </c>
+      <c r="B127" t="s">
+        <v>22</v>
+      </c>
+      <c r="C127" t="s">
+        <v>23</v>
+      </c>
+      <c r="D127">
+        <v>48453001908</v>
+      </c>
+      <c r="E127">
+        <v>15.8</v>
+      </c>
+      <c r="F127" t="s">
+        <v>24</v>
+      </c>
+      <c r="G127">
+        <v>13.1</v>
+      </c>
+      <c r="H127">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="I127" t="s">
+        <v>25</v>
+      </c>
+      <c r="J127">
+        <v>2014</v>
+      </c>
+      <c r="K127" t="s">
+        <v>26</v>
+      </c>
+      <c r="L127" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>21</v>
+      </c>
+      <c r="B128" t="s">
+        <v>22</v>
+      </c>
+      <c r="C128" t="s">
+        <v>23</v>
+      </c>
+      <c r="D128">
+        <v>48453001910</v>
+      </c>
+      <c r="E128">
+        <v>8.5</v>
+      </c>
+      <c r="F128" t="s">
+        <v>24</v>
+      </c>
+      <c r="G128">
+        <v>7</v>
+      </c>
+      <c r="H128">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="I128" t="s">
+        <v>25</v>
+      </c>
+      <c r="J128">
+        <v>2014</v>
+      </c>
+      <c r="K128" t="s">
+        <v>26</v>
+      </c>
+      <c r="L128" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>21</v>
+      </c>
+      <c r="B129" t="s">
+        <v>22</v>
+      </c>
+      <c r="C129" t="s">
+        <v>23</v>
+      </c>
+      <c r="D129">
+        <v>48453001911</v>
+      </c>
+      <c r="E129">
+        <v>11</v>
+      </c>
+      <c r="F129" t="s">
+        <v>24</v>
+      </c>
+      <c r="G129">
+        <v>9</v>
+      </c>
+      <c r="H129">
+        <v>14</v>
+      </c>
+      <c r="I129" t="s">
+        <v>25</v>
+      </c>
+      <c r="J129">
+        <v>2014</v>
+      </c>
+      <c r="K129" t="s">
+        <v>26</v>
+      </c>
+      <c r="L129" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>21</v>
+      </c>
+      <c r="B130" t="s">
+        <v>22</v>
+      </c>
+      <c r="C130" t="s">
+        <v>23</v>
+      </c>
+      <c r="D130">
+        <v>48453001912</v>
+      </c>
+      <c r="E130">
+        <v>7.9</v>
+      </c>
+      <c r="F130" t="s">
+        <v>24</v>
+      </c>
+      <c r="G130">
+        <v>6.8</v>
+      </c>
+      <c r="H130">
+        <v>9.4</v>
+      </c>
+      <c r="I130" t="s">
+        <v>25</v>
+      </c>
+      <c r="J130">
+        <v>2014</v>
+      </c>
+      <c r="K130" t="s">
+        <v>26</v>
+      </c>
+      <c r="L130" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>21</v>
+      </c>
+      <c r="B131" t="s">
+        <v>22</v>
+      </c>
+      <c r="C131" t="s">
+        <v>23</v>
+      </c>
+      <c r="D131">
+        <v>48453001913</v>
+      </c>
+      <c r="E131">
+        <v>6.6</v>
+      </c>
+      <c r="F131" t="s">
+        <v>24</v>
+      </c>
+      <c r="G131">
+        <v>5.4</v>
+      </c>
+      <c r="H131">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="I131" t="s">
+        <v>25</v>
+      </c>
+      <c r="J131">
+        <v>2014</v>
+      </c>
+      <c r="K131" t="s">
+        <v>26</v>
+      </c>
+      <c r="L131" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>21</v>
+      </c>
+      <c r="B132" t="s">
+        <v>22</v>
+      </c>
+      <c r="C132" t="s">
+        <v>23</v>
+      </c>
+      <c r="D132">
+        <v>48453001914</v>
+      </c>
+      <c r="E132">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="F132" t="s">
+        <v>24</v>
+      </c>
+      <c r="G132">
+        <v>7.3</v>
+      </c>
+      <c r="H132">
+        <v>10.7</v>
+      </c>
+      <c r="I132" t="s">
+        <v>25</v>
+      </c>
+      <c r="J132">
+        <v>2014</v>
+      </c>
+      <c r="K132" t="s">
+        <v>26</v>
+      </c>
+      <c r="L132" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>21</v>
+      </c>
+      <c r="B133" t="s">
+        <v>22</v>
+      </c>
+      <c r="C133" t="s">
+        <v>23</v>
+      </c>
+      <c r="D133">
+        <v>48453001915</v>
+      </c>
+      <c r="E133">
+        <v>14.9</v>
+      </c>
+      <c r="F133" t="s">
+        <v>24</v>
+      </c>
+      <c r="G133">
+        <v>12</v>
+      </c>
+      <c r="H133">
+        <v>18</v>
+      </c>
+      <c r="I133" t="s">
+        <v>25</v>
+      </c>
+      <c r="J133">
+        <v>2014</v>
+      </c>
+      <c r="K133" t="s">
+        <v>26</v>
+      </c>
+      <c r="L133" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>21</v>
+      </c>
+      <c r="B134" t="s">
+        <v>22</v>
+      </c>
+      <c r="C134" t="s">
+        <v>23</v>
+      </c>
+      <c r="D134">
+        <v>48453001917</v>
+      </c>
+      <c r="E134">
+        <v>7.1</v>
+      </c>
+      <c r="F134" t="s">
+        <v>24</v>
+      </c>
+      <c r="G134">
+        <v>6.2</v>
+      </c>
+      <c r="H134">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="I134" t="s">
+        <v>25</v>
+      </c>
+      <c r="J134">
+        <v>2014</v>
+      </c>
+      <c r="K134" t="s">
+        <v>26</v>
+      </c>
+      <c r="L134" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>21</v>
+      </c>
+      <c r="B135" t="s">
+        <v>22</v>
+      </c>
+      <c r="C135" t="s">
+        <v>23</v>
+      </c>
+      <c r="D135">
+        <v>48453001919</v>
+      </c>
+      <c r="E135">
+        <v>7.1</v>
+      </c>
+      <c r="F135" t="s">
+        <v>24</v>
+      </c>
+      <c r="G135">
+        <v>5.7</v>
+      </c>
+      <c r="H135">
+        <v>9.1</v>
+      </c>
+      <c r="I135" t="s">
+        <v>25</v>
+      </c>
+      <c r="J135">
+        <v>2014</v>
+      </c>
+      <c r="K135" t="s">
+        <v>26</v>
+      </c>
+      <c r="L135" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>21</v>
+      </c>
+      <c r="B136" t="s">
+        <v>22</v>
+      </c>
+      <c r="C136" t="s">
+        <v>23</v>
+      </c>
+      <c r="D136">
+        <v>48453002002</v>
+      </c>
+      <c r="E136">
+        <v>16</v>
+      </c>
+      <c r="F136" t="s">
+        <v>24</v>
+      </c>
+      <c r="G136">
+        <v>13.5</v>
+      </c>
+      <c r="H136">
+        <v>18.8</v>
+      </c>
+      <c r="I136" t="s">
+        <v>25</v>
+      </c>
+      <c r="J136">
+        <v>2014</v>
+      </c>
+      <c r="K136" t="s">
+        <v>26</v>
+      </c>
+      <c r="L136" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>21</v>
+      </c>
+      <c r="B137" t="s">
+        <v>22</v>
+      </c>
+      <c r="C137" t="s">
+        <v>23</v>
+      </c>
+      <c r="D137">
+        <v>48453002003</v>
+      </c>
+      <c r="E137">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="F137" t="s">
+        <v>24</v>
+      </c>
+      <c r="G137">
+        <v>28.7</v>
+      </c>
+      <c r="H137">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="I137" t="s">
+        <v>25</v>
+      </c>
+      <c r="J137">
+        <v>2014</v>
+      </c>
+      <c r="K137" t="s">
+        <v>26</v>
+      </c>
+      <c r="L137" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>21</v>
+      </c>
+      <c r="B138" t="s">
+        <v>22</v>
+      </c>
+      <c r="C138" t="s">
+        <v>23</v>
+      </c>
+      <c r="D138">
+        <v>48453002004</v>
+      </c>
+      <c r="E138">
+        <v>18.2</v>
+      </c>
+      <c r="F138" t="s">
+        <v>24</v>
+      </c>
+      <c r="G138">
+        <v>15.2</v>
+      </c>
+      <c r="H138">
+        <v>21.5</v>
+      </c>
+      <c r="I138" t="s">
+        <v>25</v>
+      </c>
+      <c r="J138">
+        <v>2014</v>
+      </c>
+      <c r="K138" t="s">
+        <v>26</v>
+      </c>
+      <c r="L138" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>21</v>
+      </c>
+      <c r="B139" t="s">
+        <v>22</v>
+      </c>
+      <c r="C139" t="s">
+        <v>23</v>
+      </c>
+      <c r="D139">
+        <v>48453002005</v>
+      </c>
+      <c r="E139">
+        <v>27</v>
+      </c>
+      <c r="F139" t="s">
+        <v>24</v>
+      </c>
+      <c r="G139">
+        <v>22.8</v>
+      </c>
+      <c r="H139">
+        <v>31.8</v>
+      </c>
+      <c r="I139" t="s">
+        <v>25</v>
+      </c>
+      <c r="J139">
+        <v>2014</v>
+      </c>
+      <c r="K139" t="s">
+        <v>26</v>
+      </c>
+      <c r="L139" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>21</v>
+      </c>
+      <c r="B140" t="s">
+        <v>22</v>
+      </c>
+      <c r="C140" t="s">
+        <v>23</v>
+      </c>
+      <c r="D140">
+        <v>48453002104</v>
+      </c>
+      <c r="E140">
         <v>23.5</v>
       </c>
-      <c r="F2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2">
-        <v>23.2</v>
-      </c>
-      <c r="H2">
-        <v>23.8</v>
-      </c>
-      <c r="I2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2">
-        <v>2014</v>
-      </c>
-      <c r="K2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L2" t="s">
-        <v>28</v>
+      <c r="F140" t="s">
+        <v>24</v>
+      </c>
+      <c r="G140">
+        <v>20.6</v>
+      </c>
+      <c r="H140">
+        <v>26.9</v>
+      </c>
+      <c r="I140" t="s">
+        <v>25</v>
+      </c>
+      <c r="J140">
+        <v>2014</v>
+      </c>
+      <c r="K140" t="s">
+        <v>26</v>
+      </c>
+      <c r="L140" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>21</v>
+      </c>
+      <c r="B141" t="s">
+        <v>22</v>
+      </c>
+      <c r="C141" t="s">
+        <v>23</v>
+      </c>
+      <c r="D141">
+        <v>48453002105</v>
+      </c>
+      <c r="E141">
+        <v>37.4</v>
+      </c>
+      <c r="F141" t="s">
+        <v>24</v>
+      </c>
+      <c r="G141">
+        <v>33.5</v>
+      </c>
+      <c r="H141">
+        <v>41.3</v>
+      </c>
+      <c r="I141" t="s">
+        <v>25</v>
+      </c>
+      <c r="J141">
+        <v>2014</v>
+      </c>
+      <c r="K141" t="s">
+        <v>26</v>
+      </c>
+      <c r="L141" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>21</v>
+      </c>
+      <c r="B142" t="s">
+        <v>22</v>
+      </c>
+      <c r="C142" t="s">
+        <v>23</v>
+      </c>
+      <c r="D142">
+        <v>48453002106</v>
+      </c>
+      <c r="E142">
+        <v>25.3</v>
+      </c>
+      <c r="F142" t="s">
+        <v>24</v>
+      </c>
+      <c r="G142">
+        <v>21.2</v>
+      </c>
+      <c r="H142">
+        <v>29.2</v>
+      </c>
+      <c r="I142" t="s">
+        <v>25</v>
+      </c>
+      <c r="J142">
+        <v>2014</v>
+      </c>
+      <c r="K142" t="s">
+        <v>26</v>
+      </c>
+      <c r="L142" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>21</v>
+      </c>
+      <c r="B143" t="s">
+        <v>22</v>
+      </c>
+      <c r="C143" t="s">
+        <v>23</v>
+      </c>
+      <c r="D143">
+        <v>48453002107</v>
+      </c>
+      <c r="E143">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="F143" t="s">
+        <v>24</v>
+      </c>
+      <c r="G143">
+        <v>28.8</v>
+      </c>
+      <c r="H143">
+        <v>36.5</v>
+      </c>
+      <c r="I143" t="s">
+        <v>25</v>
+      </c>
+      <c r="J143">
+        <v>2014</v>
+      </c>
+      <c r="K143" t="s">
+        <v>26</v>
+      </c>
+      <c r="L143" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>21</v>
+      </c>
+      <c r="B144" t="s">
+        <v>22</v>
+      </c>
+      <c r="C144" t="s">
+        <v>23</v>
+      </c>
+      <c r="D144">
+        <v>48453002108</v>
+      </c>
+      <c r="E144">
+        <v>30.9</v>
+      </c>
+      <c r="F144" t="s">
+        <v>24</v>
+      </c>
+      <c r="G144">
+        <v>27.3</v>
+      </c>
+      <c r="H144">
+        <v>34.6</v>
+      </c>
+      <c r="I144" t="s">
+        <v>25</v>
+      </c>
+      <c r="J144">
+        <v>2014</v>
+      </c>
+      <c r="K144" t="s">
+        <v>26</v>
+      </c>
+      <c r="L144" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>21</v>
+      </c>
+      <c r="B145" t="s">
+        <v>22</v>
+      </c>
+      <c r="C145" t="s">
+        <v>23</v>
+      </c>
+      <c r="D145">
+        <v>48453002109</v>
+      </c>
+      <c r="E145">
+        <v>28.8</v>
+      </c>
+      <c r="F145" t="s">
+        <v>24</v>
+      </c>
+      <c r="G145">
+        <v>25.8</v>
+      </c>
+      <c r="H145">
+        <v>31.8</v>
+      </c>
+      <c r="I145" t="s">
+        <v>25</v>
+      </c>
+      <c r="J145">
+        <v>2014</v>
+      </c>
+      <c r="K145" t="s">
+        <v>26</v>
+      </c>
+      <c r="L145" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>21</v>
+      </c>
+      <c r="B146" t="s">
+        <v>22</v>
+      </c>
+      <c r="C146" t="s">
+        <v>23</v>
+      </c>
+      <c r="D146">
+        <v>48453002110</v>
+      </c>
+      <c r="E146">
+        <v>41.9</v>
+      </c>
+      <c r="F146" t="s">
+        <v>24</v>
+      </c>
+      <c r="G146">
+        <v>38.6</v>
+      </c>
+      <c r="H146">
+        <v>45.2</v>
+      </c>
+      <c r="I146" t="s">
+        <v>25</v>
+      </c>
+      <c r="J146">
+        <v>2014</v>
+      </c>
+      <c r="K146" t="s">
+        <v>26</v>
+      </c>
+      <c r="L146" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>21</v>
+      </c>
+      <c r="B147" t="s">
+        <v>22</v>
+      </c>
+      <c r="C147" t="s">
+        <v>23</v>
+      </c>
+      <c r="D147">
+        <v>48453002111</v>
+      </c>
+      <c r="E147">
+        <v>42.4</v>
+      </c>
+      <c r="F147" t="s">
+        <v>24</v>
+      </c>
+      <c r="G147">
+        <v>38</v>
+      </c>
+      <c r="H147">
+        <v>46.4</v>
+      </c>
+      <c r="I147" t="s">
+        <v>25</v>
+      </c>
+      <c r="J147">
+        <v>2014</v>
+      </c>
+      <c r="K147" t="s">
+        <v>26</v>
+      </c>
+      <c r="L147" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>21</v>
+      </c>
+      <c r="B148" t="s">
+        <v>22</v>
+      </c>
+      <c r="C148" t="s">
+        <v>23</v>
+      </c>
+      <c r="D148">
+        <v>48453002112</v>
+      </c>
+      <c r="E148">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="F148" t="s">
+        <v>24</v>
+      </c>
+      <c r="G148">
+        <v>37</v>
+      </c>
+      <c r="H148">
+        <v>44.2</v>
+      </c>
+      <c r="I148" t="s">
+        <v>25</v>
+      </c>
+      <c r="J148">
+        <v>2014</v>
+      </c>
+      <c r="K148" t="s">
+        <v>26</v>
+      </c>
+      <c r="L148" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>21</v>
+      </c>
+      <c r="B149" t="s">
+        <v>22</v>
+      </c>
+      <c r="C149" t="s">
+        <v>23</v>
+      </c>
+      <c r="D149">
+        <v>48453002113</v>
+      </c>
+      <c r="E149">
+        <v>23.5</v>
+      </c>
+      <c r="F149" t="s">
+        <v>24</v>
+      </c>
+      <c r="G149">
+        <v>20.3</v>
+      </c>
+      <c r="H149">
+        <v>26.9</v>
+      </c>
+      <c r="I149" t="s">
+        <v>25</v>
+      </c>
+      <c r="J149">
+        <v>2014</v>
+      </c>
+      <c r="K149" t="s">
+        <v>26</v>
+      </c>
+      <c r="L149" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>21</v>
+      </c>
+      <c r="B150" t="s">
+        <v>22</v>
+      </c>
+      <c r="C150" t="s">
+        <v>23</v>
+      </c>
+      <c r="D150">
+        <v>48453002201</v>
+      </c>
+      <c r="E150">
+        <v>38.5</v>
+      </c>
+      <c r="F150" t="s">
+        <v>24</v>
+      </c>
+      <c r="G150">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="H150">
+        <v>41.2</v>
+      </c>
+      <c r="I150" t="s">
+        <v>25</v>
+      </c>
+      <c r="J150">
+        <v>2014</v>
+      </c>
+      <c r="K150" t="s">
+        <v>26</v>
+      </c>
+      <c r="L150" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>21</v>
+      </c>
+      <c r="B151" t="s">
+        <v>22</v>
+      </c>
+      <c r="C151" t="s">
+        <v>23</v>
+      </c>
+      <c r="D151">
+        <v>48453002202</v>
+      </c>
+      <c r="E151">
+        <v>44.4</v>
+      </c>
+      <c r="F151" t="s">
+        <v>24</v>
+      </c>
+      <c r="G151">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="H151">
+        <v>48.9</v>
+      </c>
+      <c r="I151" t="s">
+        <v>25</v>
+      </c>
+      <c r="J151">
+        <v>2014</v>
+      </c>
+      <c r="K151" t="s">
+        <v>26</v>
+      </c>
+      <c r="L151" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>21</v>
+      </c>
+      <c r="B152" t="s">
+        <v>22</v>
+      </c>
+      <c r="C152" t="s">
+        <v>23</v>
+      </c>
+      <c r="D152">
+        <v>48453002208</v>
+      </c>
+      <c r="E152">
+        <v>47.3</v>
+      </c>
+      <c r="F152" t="s">
+        <v>24</v>
+      </c>
+      <c r="G152">
+        <v>43.8</v>
+      </c>
+      <c r="H152">
+        <v>50.9</v>
+      </c>
+      <c r="I152" t="s">
+        <v>25</v>
+      </c>
+      <c r="J152">
+        <v>2014</v>
+      </c>
+      <c r="K152" t="s">
+        <v>26</v>
+      </c>
+      <c r="L152" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>21</v>
+      </c>
+      <c r="B153" t="s">
+        <v>22</v>
+      </c>
+      <c r="C153" t="s">
+        <v>23</v>
+      </c>
+      <c r="D153">
+        <v>48453002211</v>
+      </c>
+      <c r="E153">
+        <v>34.1</v>
+      </c>
+      <c r="F153" t="s">
+        <v>24</v>
+      </c>
+      <c r="G153">
+        <v>29.7</v>
+      </c>
+      <c r="H153">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="I153" t="s">
+        <v>25</v>
+      </c>
+      <c r="J153">
+        <v>2014</v>
+      </c>
+      <c r="K153" t="s">
+        <v>26</v>
+      </c>
+      <c r="L153" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>21</v>
+      </c>
+      <c r="B154" t="s">
+        <v>22</v>
+      </c>
+      <c r="C154" t="s">
+        <v>23</v>
+      </c>
+      <c r="D154">
+        <v>48453002212</v>
+      </c>
+      <c r="E154">
+        <v>36.4</v>
+      </c>
+      <c r="F154" t="s">
+        <v>24</v>
+      </c>
+      <c r="G154">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="H154">
+        <v>40.4</v>
+      </c>
+      <c r="I154" t="s">
+        <v>25</v>
+      </c>
+      <c r="J154">
+        <v>2014</v>
+      </c>
+      <c r="K154" t="s">
+        <v>26</v>
+      </c>
+      <c r="L154" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>21</v>
+      </c>
+      <c r="B155" t="s">
+        <v>22</v>
+      </c>
+      <c r="C155" t="s">
+        <v>23</v>
+      </c>
+      <c r="D155">
+        <v>48453002304</v>
+      </c>
+      <c r="E155">
+        <v>46</v>
+      </c>
+      <c r="F155" t="s">
+        <v>24</v>
+      </c>
+      <c r="G155">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="H155">
+        <v>52.6</v>
+      </c>
+      <c r="I155" t="s">
+        <v>25</v>
+      </c>
+      <c r="J155">
+        <v>2014</v>
+      </c>
+      <c r="K155" t="s">
+        <v>26</v>
+      </c>
+      <c r="L155" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>21</v>
+      </c>
+      <c r="B156" t="s">
+        <v>22</v>
+      </c>
+      <c r="C156" t="s">
+        <v>23</v>
+      </c>
+      <c r="D156">
+        <v>48453002307</v>
+      </c>
+      <c r="E156">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="F156" t="s">
+        <v>24</v>
+      </c>
+      <c r="G156">
+        <v>31.1</v>
+      </c>
+      <c r="H156">
+        <v>38.6</v>
+      </c>
+      <c r="I156" t="s">
+        <v>25</v>
+      </c>
+      <c r="J156">
+        <v>2014</v>
+      </c>
+      <c r="K156" t="s">
+        <v>26</v>
+      </c>
+      <c r="L156" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>21</v>
+      </c>
+      <c r="B157" t="s">
+        <v>22</v>
+      </c>
+      <c r="C157" t="s">
+        <v>23</v>
+      </c>
+      <c r="D157">
+        <v>48453002308</v>
+      </c>
+      <c r="E157">
+        <v>24.7</v>
+      </c>
+      <c r="F157" t="s">
+        <v>24</v>
+      </c>
+      <c r="G157">
+        <v>21.3</v>
+      </c>
+      <c r="H157">
+        <v>28.7</v>
+      </c>
+      <c r="I157" t="s">
+        <v>25</v>
+      </c>
+      <c r="J157">
+        <v>2014</v>
+      </c>
+      <c r="K157" t="s">
+        <v>26</v>
+      </c>
+      <c r="L157" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>21</v>
+      </c>
+      <c r="B158" t="s">
+        <v>22</v>
+      </c>
+      <c r="C158" t="s">
+        <v>23</v>
+      </c>
+      <c r="D158">
+        <v>48453002310</v>
+      </c>
+      <c r="E158">
+        <v>49.1</v>
+      </c>
+      <c r="F158" t="s">
+        <v>24</v>
+      </c>
+      <c r="G158">
+        <v>44.8</v>
+      </c>
+      <c r="H158">
+        <v>53.2</v>
+      </c>
+      <c r="I158" t="s">
+        <v>25</v>
+      </c>
+      <c r="J158">
+        <v>2014</v>
+      </c>
+      <c r="K158" t="s">
+        <v>26</v>
+      </c>
+      <c r="L158" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>21</v>
+      </c>
+      <c r="B159" t="s">
+        <v>22</v>
+      </c>
+      <c r="C159" t="s">
+        <v>23</v>
+      </c>
+      <c r="D159">
+        <v>48453002312</v>
+      </c>
+      <c r="E159">
+        <v>48</v>
+      </c>
+      <c r="F159" t="s">
+        <v>24</v>
+      </c>
+      <c r="G159">
+        <v>41.8</v>
+      </c>
+      <c r="H159">
+        <v>53.8</v>
+      </c>
+      <c r="I159" t="s">
+        <v>25</v>
+      </c>
+      <c r="J159">
+        <v>2014</v>
+      </c>
+      <c r="K159" t="s">
+        <v>26</v>
+      </c>
+      <c r="L159" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>21</v>
+      </c>
+      <c r="B160" t="s">
+        <v>22</v>
+      </c>
+      <c r="C160" t="s">
+        <v>23</v>
+      </c>
+      <c r="D160">
+        <v>48453002313</v>
+      </c>
+      <c r="E160">
+        <v>31.4</v>
+      </c>
+      <c r="F160" t="s">
+        <v>24</v>
+      </c>
+      <c r="G160">
+        <v>26.8</v>
+      </c>
+      <c r="H160">
+        <v>36</v>
+      </c>
+      <c r="I160" t="s">
+        <v>25</v>
+      </c>
+      <c r="J160">
+        <v>2014</v>
+      </c>
+      <c r="K160" t="s">
+        <v>26</v>
+      </c>
+      <c r="L160" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>21</v>
+      </c>
+      <c r="B161" t="s">
+        <v>22</v>
+      </c>
+      <c r="C161" t="s">
+        <v>23</v>
+      </c>
+      <c r="D161">
+        <v>48453002314</v>
+      </c>
+      <c r="E161">
+        <v>37.6</v>
+      </c>
+      <c r="F161" t="s">
+        <v>24</v>
+      </c>
+      <c r="G161">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="H161">
+        <v>42.4</v>
+      </c>
+      <c r="I161" t="s">
+        <v>25</v>
+      </c>
+      <c r="J161">
+        <v>2014</v>
+      </c>
+      <c r="K161" t="s">
+        <v>26</v>
+      </c>
+      <c r="L161" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>21</v>
+      </c>
+      <c r="B162" t="s">
+        <v>22</v>
+      </c>
+      <c r="C162" t="s">
+        <v>23</v>
+      </c>
+      <c r="D162">
+        <v>48453002315</v>
+      </c>
+      <c r="E162">
+        <v>43.6</v>
+      </c>
+      <c r="F162" t="s">
+        <v>24</v>
+      </c>
+      <c r="G162">
+        <v>37.1</v>
+      </c>
+      <c r="H162">
+        <v>49.9</v>
+      </c>
+      <c r="I162" t="s">
+        <v>25</v>
+      </c>
+      <c r="J162">
+        <v>2014</v>
+      </c>
+      <c r="K162" t="s">
+        <v>26</v>
+      </c>
+      <c r="L162" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>21</v>
+      </c>
+      <c r="B163" t="s">
+        <v>22</v>
+      </c>
+      <c r="C163" t="s">
+        <v>23</v>
+      </c>
+      <c r="D163">
+        <v>48453002316</v>
+      </c>
+      <c r="E163">
+        <v>49.8</v>
+      </c>
+      <c r="F163" t="s">
+        <v>24</v>
+      </c>
+      <c r="G163">
+        <v>45.7</v>
+      </c>
+      <c r="H163">
+        <v>53.6</v>
+      </c>
+      <c r="I163" t="s">
+        <v>25</v>
+      </c>
+      <c r="J163">
+        <v>2014</v>
+      </c>
+      <c r="K163" t="s">
+        <v>26</v>
+      </c>
+      <c r="L163" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>21</v>
+      </c>
+      <c r="B164" t="s">
+        <v>22</v>
+      </c>
+      <c r="C164" t="s">
+        <v>23</v>
+      </c>
+      <c r="D164">
+        <v>48453002317</v>
+      </c>
+      <c r="E164">
+        <v>40.5</v>
+      </c>
+      <c r="F164" t="s">
+        <v>24</v>
+      </c>
+      <c r="G164">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="H164">
+        <v>47.2</v>
+      </c>
+      <c r="I164" t="s">
+        <v>25</v>
+      </c>
+      <c r="J164">
+        <v>2014</v>
+      </c>
+      <c r="K164" t="s">
+        <v>26</v>
+      </c>
+      <c r="L164" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>21</v>
+      </c>
+      <c r="B165" t="s">
+        <v>22</v>
+      </c>
+      <c r="C165" t="s">
+        <v>23</v>
+      </c>
+      <c r="D165">
+        <v>48453002318</v>
+      </c>
+      <c r="E165">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="F165" t="s">
+        <v>24</v>
+      </c>
+      <c r="G165">
+        <v>35.4</v>
+      </c>
+      <c r="H165">
+        <v>46.2</v>
+      </c>
+      <c r="I165" t="s">
+        <v>25</v>
+      </c>
+      <c r="J165">
+        <v>2014</v>
+      </c>
+      <c r="K165" t="s">
+        <v>26</v>
+      </c>
+      <c r="L165" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>21</v>
+      </c>
+      <c r="B166" t="s">
+        <v>22</v>
+      </c>
+      <c r="C166" t="s">
+        <v>23</v>
+      </c>
+      <c r="D166">
+        <v>48453002319</v>
+      </c>
+      <c r="E166">
+        <v>51.5</v>
+      </c>
+      <c r="F166" t="s">
+        <v>24</v>
+      </c>
+      <c r="G166">
+        <v>47.1</v>
+      </c>
+      <c r="H166">
+        <v>55.7</v>
+      </c>
+      <c r="I166" t="s">
+        <v>25</v>
+      </c>
+      <c r="J166">
+        <v>2014</v>
+      </c>
+      <c r="K166" t="s">
+        <v>26</v>
+      </c>
+      <c r="L166" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>21</v>
+      </c>
+      <c r="B167" t="s">
+        <v>22</v>
+      </c>
+      <c r="C167" t="s">
+        <v>23</v>
+      </c>
+      <c r="D167">
+        <v>48453002402</v>
+      </c>
+      <c r="E167">
+        <v>26.7</v>
+      </c>
+      <c r="F167" t="s">
+        <v>24</v>
+      </c>
+      <c r="G167">
+        <v>22.3</v>
+      </c>
+      <c r="H167">
+        <v>31.3</v>
+      </c>
+      <c r="I167" t="s">
+        <v>25</v>
+      </c>
+      <c r="J167">
+        <v>2014</v>
+      </c>
+      <c r="K167" t="s">
+        <v>26</v>
+      </c>
+      <c r="L167" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>21</v>
+      </c>
+      <c r="B168" t="s">
+        <v>22</v>
+      </c>
+      <c r="C168" t="s">
+        <v>23</v>
+      </c>
+      <c r="D168">
+        <v>48453002403</v>
+      </c>
+      <c r="E168">
+        <v>23.4</v>
+      </c>
+      <c r="F168" t="s">
+        <v>24</v>
+      </c>
+      <c r="G168">
+        <v>20.2</v>
+      </c>
+      <c r="H168">
+        <v>26.9</v>
+      </c>
+      <c r="I168" t="s">
+        <v>25</v>
+      </c>
+      <c r="J168">
+        <v>2014</v>
+      </c>
+      <c r="K168" t="s">
+        <v>26</v>
+      </c>
+      <c r="L168" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>21</v>
+      </c>
+      <c r="B169" t="s">
+        <v>22</v>
+      </c>
+      <c r="C169" t="s">
+        <v>23</v>
+      </c>
+      <c r="D169">
+        <v>48453002407</v>
+      </c>
+      <c r="E169">
+        <v>17.8</v>
+      </c>
+      <c r="F169" t="s">
+        <v>24</v>
+      </c>
+      <c r="G169">
+        <v>15.6</v>
+      </c>
+      <c r="H169">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="I169" t="s">
+        <v>25</v>
+      </c>
+      <c r="J169">
+        <v>2014</v>
+      </c>
+      <c r="K169" t="s">
+        <v>26</v>
+      </c>
+      <c r="L169" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>21</v>
+      </c>
+      <c r="B170" t="s">
+        <v>22</v>
+      </c>
+      <c r="C170" t="s">
+        <v>23</v>
+      </c>
+      <c r="D170">
+        <v>48453002409</v>
+      </c>
+      <c r="E170">
+        <v>27.5</v>
+      </c>
+      <c r="F170" t="s">
+        <v>24</v>
+      </c>
+      <c r="G170">
+        <v>24.1</v>
+      </c>
+      <c r="H170">
+        <v>30.8</v>
+      </c>
+      <c r="I170" t="s">
+        <v>25</v>
+      </c>
+      <c r="J170">
+        <v>2014</v>
+      </c>
+      <c r="K170" t="s">
+        <v>26</v>
+      </c>
+      <c r="L170" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>21</v>
+      </c>
+      <c r="B171" t="s">
+        <v>22</v>
+      </c>
+      <c r="C171" t="s">
+        <v>23</v>
+      </c>
+      <c r="D171">
+        <v>48453002410</v>
+      </c>
+      <c r="E171">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="F171" t="s">
+        <v>24</v>
+      </c>
+      <c r="G171">
+        <v>27.8</v>
+      </c>
+      <c r="H171">
+        <v>37.4</v>
+      </c>
+      <c r="I171" t="s">
+        <v>25</v>
+      </c>
+      <c r="J171">
+        <v>2014</v>
+      </c>
+      <c r="K171" t="s">
+        <v>26</v>
+      </c>
+      <c r="L171" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>21</v>
+      </c>
+      <c r="B172" t="s">
+        <v>22</v>
+      </c>
+      <c r="C172" t="s">
+        <v>23</v>
+      </c>
+      <c r="D172">
+        <v>48453002411</v>
+      </c>
+      <c r="E172">
+        <v>53.2</v>
+      </c>
+      <c r="F172" t="s">
+        <v>24</v>
+      </c>
+      <c r="G172">
+        <v>47.5</v>
+      </c>
+      <c r="H172">
+        <v>58.4</v>
+      </c>
+      <c r="I172" t="s">
+        <v>25</v>
+      </c>
+      <c r="J172">
+        <v>2014</v>
+      </c>
+      <c r="K172" t="s">
+        <v>26</v>
+      </c>
+      <c r="L172" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>21</v>
+      </c>
+      <c r="B173" t="s">
+        <v>22</v>
+      </c>
+      <c r="C173" t="s">
+        <v>23</v>
+      </c>
+      <c r="D173">
+        <v>48453002412</v>
+      </c>
+      <c r="E173">
+        <v>47</v>
+      </c>
+      <c r="F173" t="s">
+        <v>24</v>
+      </c>
+      <c r="G173">
+        <v>41.3</v>
+      </c>
+      <c r="H173">
+        <v>51.9</v>
+      </c>
+      <c r="I173" t="s">
+        <v>25</v>
+      </c>
+      <c r="J173">
+        <v>2014</v>
+      </c>
+      <c r="K173" t="s">
+        <v>26</v>
+      </c>
+      <c r="L173" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>21</v>
+      </c>
+      <c r="B174" t="s">
+        <v>22</v>
+      </c>
+      <c r="C174" t="s">
+        <v>23</v>
+      </c>
+      <c r="D174">
+        <v>48453002413</v>
+      </c>
+      <c r="E174">
+        <v>54.3</v>
+      </c>
+      <c r="F174" t="s">
+        <v>24</v>
+      </c>
+      <c r="G174">
+        <v>48.2</v>
+      </c>
+      <c r="H174">
+        <v>59.4</v>
+      </c>
+      <c r="I174" t="s">
+        <v>25</v>
+      </c>
+      <c r="J174">
+        <v>2014</v>
+      </c>
+      <c r="K174" t="s">
+        <v>26</v>
+      </c>
+      <c r="L174" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>21</v>
+      </c>
+      <c r="B175" t="s">
+        <v>22</v>
+      </c>
+      <c r="C175" t="s">
+        <v>23</v>
+      </c>
+      <c r="D175">
+        <v>48453002419</v>
+      </c>
+      <c r="E175">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="F175" t="s">
+        <v>24</v>
+      </c>
+      <c r="G175">
+        <v>32</v>
+      </c>
+      <c r="H175">
+        <v>42.3</v>
+      </c>
+      <c r="I175" t="s">
+        <v>25</v>
+      </c>
+      <c r="J175">
+        <v>2014</v>
+      </c>
+      <c r="K175" t="s">
+        <v>26</v>
+      </c>
+      <c r="L175" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>21</v>
+      </c>
+      <c r="B176" t="s">
+        <v>22</v>
+      </c>
+      <c r="C176" t="s">
+        <v>23</v>
+      </c>
+      <c r="D176">
+        <v>48453002421</v>
+      </c>
+      <c r="E176">
+        <v>19.2</v>
+      </c>
+      <c r="F176" t="s">
+        <v>24</v>
+      </c>
+      <c r="G176">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="H176">
+        <v>22.5</v>
+      </c>
+      <c r="I176" t="s">
+        <v>25</v>
+      </c>
+      <c r="J176">
+        <v>2014</v>
+      </c>
+      <c r="K176" t="s">
+        <v>26</v>
+      </c>
+      <c r="L176" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>21</v>
+      </c>
+      <c r="B177" t="s">
+        <v>22</v>
+      </c>
+      <c r="C177" t="s">
+        <v>23</v>
+      </c>
+      <c r="D177">
+        <v>48453002422</v>
+      </c>
+      <c r="E177">
+        <v>27</v>
+      </c>
+      <c r="F177" t="s">
+        <v>24</v>
+      </c>
+      <c r="G177">
+        <v>24</v>
+      </c>
+      <c r="H177">
+        <v>30.2</v>
+      </c>
+      <c r="I177" t="s">
+        <v>25</v>
+      </c>
+      <c r="J177">
+        <v>2014</v>
+      </c>
+      <c r="K177" t="s">
+        <v>26</v>
+      </c>
+      <c r="L177" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>21</v>
+      </c>
+      <c r="B178" t="s">
+        <v>22</v>
+      </c>
+      <c r="C178" t="s">
+        <v>23</v>
+      </c>
+      <c r="D178">
+        <v>48453002423</v>
+      </c>
+      <c r="E178">
+        <v>22.6</v>
+      </c>
+      <c r="F178" t="s">
+        <v>24</v>
+      </c>
+      <c r="G178">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="H178">
+        <v>25.6</v>
+      </c>
+      <c r="I178" t="s">
+        <v>25</v>
+      </c>
+      <c r="J178">
+        <v>2014</v>
+      </c>
+      <c r="K178" t="s">
+        <v>26</v>
+      </c>
+      <c r="L178" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>21</v>
+      </c>
+      <c r="B179" t="s">
+        <v>22</v>
+      </c>
+      <c r="C179" t="s">
+        <v>23</v>
+      </c>
+      <c r="D179">
+        <v>48453002424</v>
+      </c>
+      <c r="E179">
+        <v>27.6</v>
+      </c>
+      <c r="F179" t="s">
+        <v>24</v>
+      </c>
+      <c r="G179">
+        <v>24.2</v>
+      </c>
+      <c r="H179">
+        <v>31.2</v>
+      </c>
+      <c r="I179" t="s">
+        <v>25</v>
+      </c>
+      <c r="J179">
+        <v>2014</v>
+      </c>
+      <c r="K179" t="s">
+        <v>26</v>
+      </c>
+      <c r="L179" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>21</v>
+      </c>
+      <c r="B180" t="s">
+        <v>22</v>
+      </c>
+      <c r="C180" t="s">
+        <v>23</v>
+      </c>
+      <c r="D180">
+        <v>48453002425</v>
+      </c>
+      <c r="E180">
+        <v>20</v>
+      </c>
+      <c r="F180" t="s">
+        <v>24</v>
+      </c>
+      <c r="G180">
+        <v>17.8</v>
+      </c>
+      <c r="H180">
+        <v>22.2</v>
+      </c>
+      <c r="I180" t="s">
+        <v>25</v>
+      </c>
+      <c r="J180">
+        <v>2014</v>
+      </c>
+      <c r="K180" t="s">
+        <v>26</v>
+      </c>
+      <c r="L180" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>21</v>
+      </c>
+      <c r="B181" t="s">
+        <v>22</v>
+      </c>
+      <c r="C181" t="s">
+        <v>23</v>
+      </c>
+      <c r="D181">
+        <v>48453002426</v>
+      </c>
+      <c r="E181">
+        <v>31.6</v>
+      </c>
+      <c r="F181" t="s">
+        <v>24</v>
+      </c>
+      <c r="G181">
+        <v>27.8</v>
+      </c>
+      <c r="H181">
+        <v>35.4</v>
+      </c>
+      <c r="I181" t="s">
+        <v>25</v>
+      </c>
+      <c r="J181">
+        <v>2014</v>
+      </c>
+      <c r="K181" t="s">
+        <v>26</v>
+      </c>
+      <c r="L181" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>21</v>
+      </c>
+      <c r="B182" t="s">
+        <v>22</v>
+      </c>
+      <c r="C182" t="s">
+        <v>23</v>
+      </c>
+      <c r="D182">
+        <v>48453002427</v>
+      </c>
+      <c r="E182">
+        <v>45.4</v>
+      </c>
+      <c r="F182" t="s">
+        <v>24</v>
+      </c>
+      <c r="G182">
+        <v>39.5</v>
+      </c>
+      <c r="H182">
+        <v>50.4</v>
+      </c>
+      <c r="I182" t="s">
+        <v>25</v>
+      </c>
+      <c r="J182">
+        <v>2014</v>
+      </c>
+      <c r="K182" t="s">
+        <v>26</v>
+      </c>
+      <c r="L182" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>21</v>
+      </c>
+      <c r="B183" t="s">
+        <v>22</v>
+      </c>
+      <c r="C183" t="s">
+        <v>23</v>
+      </c>
+      <c r="D183">
+        <v>48453002428</v>
+      </c>
+      <c r="E183">
+        <v>18.5</v>
+      </c>
+      <c r="F183" t="s">
+        <v>24</v>
+      </c>
+      <c r="G183">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="H183">
+        <v>21</v>
+      </c>
+      <c r="I183" t="s">
+        <v>25</v>
+      </c>
+      <c r="J183">
+        <v>2014</v>
+      </c>
+      <c r="K183" t="s">
+        <v>26</v>
+      </c>
+      <c r="L183" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>21</v>
+      </c>
+      <c r="B184" t="s">
+        <v>22</v>
+      </c>
+      <c r="C184" t="s">
+        <v>23</v>
+      </c>
+      <c r="D184">
+        <v>48453002429</v>
+      </c>
+      <c r="E184">
+        <v>17.3</v>
+      </c>
+      <c r="F184" t="s">
+        <v>24</v>
+      </c>
+      <c r="G184">
+        <v>14.3</v>
+      </c>
+      <c r="H184">
+        <v>21.1</v>
+      </c>
+      <c r="I184" t="s">
+        <v>25</v>
+      </c>
+      <c r="J184">
+        <v>2014</v>
+      </c>
+      <c r="K184" t="s">
+        <v>26</v>
+      </c>
+      <c r="L184" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>21</v>
+      </c>
+      <c r="B185" t="s">
+        <v>22</v>
+      </c>
+      <c r="C185" t="s">
+        <v>23</v>
+      </c>
+      <c r="D185">
+        <v>48453002430</v>
+      </c>
+      <c r="E185">
+        <v>41</v>
+      </c>
+      <c r="F185" t="s">
+        <v>24</v>
+      </c>
+      <c r="G185">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="H185">
+        <v>46.7</v>
+      </c>
+      <c r="I185" t="s">
+        <v>25</v>
+      </c>
+      <c r="J185">
+        <v>2014</v>
+      </c>
+      <c r="K185" t="s">
+        <v>26</v>
+      </c>
+      <c r="L185" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>21</v>
+      </c>
+      <c r="B186" t="s">
+        <v>22</v>
+      </c>
+      <c r="C186" t="s">
+        <v>23</v>
+      </c>
+      <c r="D186">
+        <v>48453002431</v>
+      </c>
+      <c r="E186">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="F186" t="s">
+        <v>24</v>
+      </c>
+      <c r="G186">
+        <v>30.6</v>
+      </c>
+      <c r="H186">
+        <v>42.3</v>
+      </c>
+      <c r="I186" t="s">
+        <v>25</v>
+      </c>
+      <c r="J186">
+        <v>2014</v>
+      </c>
+      <c r="K186" t="s">
+        <v>26</v>
+      </c>
+      <c r="L186" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>21</v>
+      </c>
+      <c r="B187" t="s">
+        <v>22</v>
+      </c>
+      <c r="C187" t="s">
+        <v>23</v>
+      </c>
+      <c r="D187">
+        <v>48453002432</v>
+      </c>
+      <c r="E187">
+        <v>42.5</v>
+      </c>
+      <c r="F187" t="s">
+        <v>24</v>
+      </c>
+      <c r="G187">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="H187">
+        <v>47.8</v>
+      </c>
+      <c r="I187" t="s">
+        <v>25</v>
+      </c>
+      <c r="J187">
+        <v>2014</v>
+      </c>
+      <c r="K187" t="s">
+        <v>26</v>
+      </c>
+      <c r="L187" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>21</v>
+      </c>
+      <c r="B188" t="s">
+        <v>22</v>
+      </c>
+      <c r="C188" t="s">
+        <v>23</v>
+      </c>
+      <c r="D188">
+        <v>48453002433</v>
+      </c>
+      <c r="E188">
+        <v>32.1</v>
+      </c>
+      <c r="F188" t="s">
+        <v>24</v>
+      </c>
+      <c r="G188">
+        <v>27.7</v>
+      </c>
+      <c r="H188">
+        <v>36.4</v>
+      </c>
+      <c r="I188" t="s">
+        <v>25</v>
+      </c>
+      <c r="J188">
+        <v>2014</v>
+      </c>
+      <c r="K188" t="s">
+        <v>26</v>
+      </c>
+      <c r="L188" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>21</v>
+      </c>
+      <c r="B189" t="s">
+        <v>22</v>
+      </c>
+      <c r="C189" t="s">
+        <v>23</v>
+      </c>
+      <c r="D189">
+        <v>48453002435</v>
+      </c>
+      <c r="E189">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="F189" t="s">
+        <v>24</v>
+      </c>
+      <c r="G189">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="H189">
+        <v>42.6</v>
+      </c>
+      <c r="I189" t="s">
+        <v>25</v>
+      </c>
+      <c r="J189">
+        <v>2014</v>
+      </c>
+      <c r="K189" t="s">
+        <v>26</v>
+      </c>
+      <c r="L189" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>21</v>
+      </c>
+      <c r="B190" t="s">
+        <v>22</v>
+      </c>
+      <c r="C190" t="s">
+        <v>23</v>
+      </c>
+      <c r="D190">
+        <v>48453002500</v>
+      </c>
+      <c r="E190">
+        <v>11.7</v>
+      </c>
+      <c r="F190" t="s">
+        <v>24</v>
+      </c>
+      <c r="G190">
+        <v>9.9</v>
+      </c>
+      <c r="H190">
+        <v>13.8</v>
+      </c>
+      <c r="I190" t="s">
+        <v>25</v>
+      </c>
+      <c r="J190">
+        <v>2014</v>
+      </c>
+      <c r="K190" t="s">
+        <v>26</v>
+      </c>
+      <c r="L190" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
